--- a/doc/1. [SE] SRS (& System testing).xlsx
+++ b/doc/1. [SE] SRS (& System testing).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Education\2025년도 2학기\[2025.09.01~2025.12.XX] 소프트웨어공학\2. 레포트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balls\Documents\sogong\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD5AEE4-9948-4C79-BBEF-FB7BF621A4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D2832F-E912-4CA6-9A9C-11163E798215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="14" r:id="rId1"/>
@@ -21,96 +21,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">SRS!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eBL 부가서비스 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eBL부가서비스 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eBL Envelope 전자문서 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eBL Advice 전자문서 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eBL 전자문서 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eBL 전자문서 송신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eBL 전자문서 수신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLEnvelope 전자문서 송신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShippingRequest 전자문서 수신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Project description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,71 +717,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -881,16 +793,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -917,16 +823,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -941,19 +847,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,39 +1343,39 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="33" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="22" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="14.08203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="22.9140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.58203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="21.4140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="29.4140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="33" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="11.58203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="8.9140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="58" t="s">
-        <v>31</v>
+      <c r="A1" s="55" t="s">
+        <v>11</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="2"/>
@@ -1483,14 +1389,14 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>36</v>
+      <c r="A3" s="22" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="79" t="s">
-        <v>37</v>
+      <c r="B3" s="76" t="s">
+        <v>17</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -1498,14 +1404,14 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>20</v>
+      <c r="A4" s="22" t="s">
+        <v>0</v>
       </c>
-      <c r="B4" s="79" t="s">
-        <v>38</v>
+      <c r="B4" s="76" t="s">
+        <v>18</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -1513,14 +1419,14 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>33</v>
+      <c r="A5" s="22" t="s">
+        <v>13</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>34</v>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>35</v>
+      <c r="C5" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1530,9 +1436,9 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1541,9 +1447,9 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1552,9 +1458,9 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1562,491 +1468,433 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="C9" s="22"/>
+    <row r="9" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="C9" s="21"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="17">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:11" s="24" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A13" s="80" t="s">
-        <v>32</v>
+    <row r="13" spans="1:11" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A13" s="77" t="s">
+        <v>12</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" s="25" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="64" t="s">
-        <v>21</v>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" s="24" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A14" s="61" t="s">
+        <v>1</v>
       </c>
-      <c r="B14" s="67" t="s">
-        <v>28</v>
+      <c r="B14" s="64" t="s">
+        <v>8</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>27</v>
+      <c r="C14" s="64" t="s">
+        <v>7</v>
       </c>
-      <c r="D14" s="73" t="s">
-        <v>26</v>
+      <c r="D14" s="70" t="s">
+        <v>6</v>
       </c>
-      <c r="E14" s="76" t="s">
-        <v>30</v>
+      <c r="E14" s="73" t="s">
+        <v>10</v>
       </c>
-      <c r="F14" s="70" t="s">
-        <v>22</v>
+      <c r="F14" s="67" t="s">
+        <v>2</v>
       </c>
-      <c r="G14" s="70" t="s">
-        <v>23</v>
+      <c r="G14" s="67" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="25" customFormat="1" ht="13.5">
-      <c r="A15" s="65"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-    </row>
-    <row r="16" spans="1:11" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="1:11" ht="13.5">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="I14" s="58" t="s">
         <v>4</v>
       </c>
+      <c r="J14" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="24" customFormat="1" ht="16">
+      <c r="A15" s="62"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+    </row>
+    <row r="16" spans="1:11" s="24" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A16" s="63"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+    </row>
+    <row r="17" spans="1:11" ht="16">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="8"/>
       <c r="H17" s="12"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5">
-      <c r="A18" s="9">
-        <v>1.1000000000000001</v>
-      </c>
+    <row r="18" spans="1:11" ht="16" collapsed="1">
+      <c r="A18" s="9"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="84.75" customHeight="1" outlineLevel="1">
-      <c r="A19" s="9" t="s">
-        <v>0</v>
-      </c>
+    <row r="19" spans="1:11" ht="84.75" hidden="1" customHeight="1">
+      <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="47"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" ht="38.25" customHeight="1" outlineLevel="1">
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="38.25" hidden="1" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="47"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" ht="47.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="47.25" hidden="1" customHeight="1">
+      <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="39"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-    </row>
-    <row r="22" spans="1:11" ht="36" customHeight="1" outlineLevel="1">
-      <c r="A22" s="28"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="36" hidden="1" customHeight="1">
+      <c r="A22" s="25"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="29"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="48"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-    </row>
-    <row r="23" spans="1:11" s="45" customFormat="1" ht="84" customHeight="1" outlineLevel="1">
-      <c r="A23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="36"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" s="42" customFormat="1" ht="84" hidden="1" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="39"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" ht="13.5">
-      <c r="A24" s="32">
-        <v>2</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="27"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" ht="16">
+      <c r="A24" s="29"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="27">
-      <c r="A25" s="32">
-        <v>2.1</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A26" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" ht="144" customHeight="1" outlineLevel="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" ht="45.75" customHeight="1" outlineLevel="1">
-      <c r="A28" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" ht="27">
-      <c r="A29" s="32">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="19"/>
+    <row r="25" spans="1:11" ht="16" collapsed="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" ht="63.75" hidden="1" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" ht="144" hidden="1" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" ht="45.75" hidden="1" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" ht="16" collapsed="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="18"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" ht="45.75" customHeight="1" outlineLevel="1">
-      <c r="A30" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" ht="38.25" customHeight="1" outlineLevel="1">
-      <c r="A31" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-    </row>
-    <row r="32" spans="1:11" ht="13.5">
-      <c r="A32" s="32">
-        <v>3</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="1:11" ht="27">
-      <c r="A33" s="32">
-        <v>3.1</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="19"/>
+    <row r="30" spans="1:11" ht="45.75" hidden="1" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" ht="38.25" hidden="1" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="16">
+      <c r="A32" s="29"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" ht="16" collapsed="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="18"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" ht="34.5" customHeight="1" outlineLevel="1">
-      <c r="A34" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="1:11" ht="40.5" customHeight="1" outlineLevel="1">
-      <c r="A35" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-    </row>
-    <row r="36" spans="1:11" ht="13.5">
-      <c r="A36" s="31">
-        <v>4</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-    </row>
-    <row r="37" spans="1:11" ht="27">
-      <c r="A37" s="31">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="19"/>
+    <row r="34" spans="1:11" ht="34.5" hidden="1" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11" ht="40.5" hidden="1" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="1:11" ht="16">
+      <c r="A36" s="28"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="1:11" ht="16" collapsed="1">
+      <c r="A37" s="28"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="18"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" ht="48" customHeight="1" outlineLevel="1">
-      <c r="A38" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-    </row>
-    <row r="39" spans="1:11" ht="40.5" customHeight="1" outlineLevel="1">
-      <c r="A39" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-    </row>
-    <row r="40" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="35"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-    </row>
-    <row r="41" spans="1:11" ht="13.5">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="I41" s="26"/>
-    </row>
-    <row r="42" spans="1:11" ht="13.5">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="I42" s="26"/>
+    <row r="38" spans="1:11" ht="48" hidden="1" customHeight="1">
+      <c r="A38" s="28"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="1:11" ht="40.5" hidden="1" customHeight="1">
+      <c r="A39" s="28"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="32"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" spans="1:11" ht="16">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" ht="16">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2069,9 +1917,6 @@
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="28" max="19" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 
@@ -2083,7 +1928,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="29" ht="14.25" customHeight="1"/>
   </sheetData>

--- a/doc/1. [SE] SRS (& System testing).xlsx
+++ b/doc/1. [SE] SRS (& System testing).xlsx
@@ -24,13 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <x:si>
-    <x:t>추적성
-(Traceability)</x:t>
+    <x:t>김은강</x:t>
   </x:si>
   <x:si>
-    <x:t>Project description</x:t>
+    <x:t>정상 입력값 partitioning
+(Normal inputs partitioning)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예외 입력값 partitioning
+(Exceptional inputs partitioning)</x:t>
   </x:si>
   <x:si>
     <x:t>세부요구사항 설명
@@ -38,19 +42,18 @@
 (predicative summary of the function)</x:t>
   </x:si>
   <x:si>
-    <x:t>예외 입력값 partitioning
-(Exceptional inputs partitioning)</x:t>
+    <x:t>입력변수
+(Input variables to test the function)</x:t>
   </x:si>
   <x:si>
-    <x:t>문서 편집</x:t>
+    <x:t>Software Requirements Specification (SRS) (&amp; System testing)</x:t>
   </x:si>
   <x:si>
-    <x:t>정상 입력값 partitioning
-(Normal inputs partitioning)</x:t>
+    <x:t>Project description</x:t>
   </x:si>
   <x:si>
-    <x:t>입력변수
-(Input variables to test the function)</x:t>
+    <x:t>추적성
+(Traceability)</x:t>
   </x:si>
   <x:si>
     <x:t>우선순위
@@ -58,13 +61,16 @@
 (High, Medium, Low)</x:t>
   </x:si>
   <x:si>
-    <x:t>Software Requirements Specification (SRS) (&amp; System testing)</x:t>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(프로젝트 제목 작성)</x:t>
   </x:si>
   <x:si>
     <x:t>(Student ID)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(프로젝트 제목 작성)</x:t>
   </x:si>
   <x:si>
     <x:t>Project title</x:t>
@@ -73,14 +79,17 @@
     <x:t>Team members</x:t>
   </x:si>
   <x:si>
-    <x:t>요약
-(Summary of the function)</x:t>
+    <x:t>(Name)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서 편집</x:t>
   </x:si>
   <x:si>
     <x:t>1. 요구사항 정의 (Requirements description)</x:t>
   </x:si>
   <x:si>
-    <x:t>ID</x:t>
+    <x:t>요약
+(Summary of the function)</x:t>
   </x:si>
   <x:si>
     <x:t>테스트 결과
@@ -90,14 +99,11 @@
     <x:t>(본 프로젝트에 대한 전반적인 요약문)</x:t>
   </x:si>
   <x:si>
-    <x:t>(Name)</x:t>
-  </x:si>
-  <x:si>
     <x:t>업무명 (기능)
 (Function name)</x:t>
   </x:si>
   <x:si>
-    <x:t>12</x:t>
+    <x:t>1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -153,48 +159,17 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -259,12 +234,50 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="16"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="16"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="16"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -282,28 +295,6 @@
         <x:font>
           <x:name val="굴림"/>
           <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
           <x:color rgb="ff000000"/>
           <x:b val="1"/>
         </x:font>
@@ -758,9 +749,93 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left style="medium">
         <x:color auto="1"/>
       </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="double">
+        <x:color auto="1"/>
+      </x:left>
       <x:right style="medium">
         <x:color auto="1"/>
       </x:right>
@@ -775,91 +850,7 @@
       <x:left style="medium">
         <x:color auto="1"/>
       </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="double">
-        <x:color auto="1"/>
-      </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
         <x:color auto="1"/>
       </x:right>
       <x:top>
@@ -882,7 +873,7 @@
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="78">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1530,24 +1521,11 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
@@ -1589,45 +1567,6 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1684,11 +1623,63 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="16" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="16" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="3">
@@ -2437,8 +2428,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:K42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="B17" activeCellId="0" sqref="B17:B17"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="B18" activeCellId="0" sqref="B18:B18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" customHeight="1"/>
@@ -2459,7 +2450,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
       <x:c r="A1" s="55" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="56"/>
       <x:c r="C1" s="56"/>
@@ -2485,13 +2476,13 @@
     </x:row>
     <x:row r="3" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1">
       <x:c r="A3" s="22" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="58" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B3" s="76" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="76"/>
-      <x:c r="D3" s="76"/>
+      <x:c r="C3" s="58"/>
+      <x:c r="D3" s="58"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="13"/>
       <x:c r="G3" s="13"/>
@@ -2500,13 +2491,13 @@
     </x:row>
     <x:row r="4" spans="1:9" s="1" customFormat="1" ht="115.5" customHeight="1">
       <x:c r="A4" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
-      <x:c r="B4" s="76" t="s">
-        <x:v>17</x:v>
+      <x:c r="B4" s="58" t="s">
+        <x:v>20</x:v>
       </x:c>
-      <x:c r="C4" s="76"/>
-      <x:c r="D4" s="76"/>
+      <x:c r="C4" s="58"/>
+      <x:c r="D4" s="58"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="13"/>
       <x:c r="G4" s="13"/>
@@ -2515,13 +2506,13 @@
     </x:row>
     <x:row r="5" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1">
       <x:c r="A5" s="22" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B5" s="21" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B5" s="21" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="C5" s="21" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="13"/>
       <x:c r="E5" s="13"/>
@@ -2604,81 +2595,81 @@
       <x:c r="G12" s="5"/>
     </x:row>
     <x:row r="13" spans="1:7" s="23" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A13" s="77" t="s">
-        <x:v>14</x:v>
+      <x:c r="A13" s="59" t="s">
+        <x:v>17</x:v>
       </x:c>
-      <x:c r="B13" s="77"/>
-      <x:c r="C13" s="77"/>
+      <x:c r="B13" s="59"/>
+      <x:c r="C13" s="59"/>
       <x:c r="D13" s="17"/>
       <x:c r="E13" s="17"/>
       <x:c r="F13" s="17"/>
       <x:c r="G13" s="17"/>
     </x:row>
     <x:row r="14" spans="1:11" s="24" customFormat="1" ht="13.5" customHeight="1">
-      <x:c r="A14" s="61" t="s">
-        <x:v>15</x:v>
+      <x:c r="A14" s="60" t="s">
+        <x:v>10</x:v>
       </x:c>
-      <x:c r="B14" s="64" t="s">
+      <x:c r="B14" s="63" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C14" s="63" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D14" s="66" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E14" s="69" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F14" s="72" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G14" s="72" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H14" s="2"/>
+      <x:c r="I14" s="75" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J14" s="75" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K14" s="75" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C14" s="64" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D14" s="70" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E14" s="73" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F14" s="67" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G14" s="67" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H14" s="2"/>
-      <x:c r="I14" s="58" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J14" s="58" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="K14" s="58" t="s">
-        <x:v>16</x:v>
-      </x:c>
     </x:row>
     <x:row r="15" spans="1:11" s="24" customFormat="1" ht="13.19999999999999928946">
-      <x:c r="A15" s="62"/>
-      <x:c r="B15" s="65"/>
-      <x:c r="C15" s="65"/>
-      <x:c r="D15" s="71"/>
-      <x:c r="E15" s="74"/>
-      <x:c r="F15" s="68"/>
-      <x:c r="G15" s="68"/>
+      <x:c r="A15" s="61"/>
+      <x:c r="B15" s="64"/>
+      <x:c r="C15" s="64"/>
+      <x:c r="D15" s="67"/>
+      <x:c r="E15" s="70"/>
+      <x:c r="F15" s="73"/>
+      <x:c r="G15" s="73"/>
       <x:c r="H15" s="2"/>
-      <x:c r="I15" s="59"/>
-      <x:c r="J15" s="59"/>
-      <x:c r="K15" s="59"/>
+      <x:c r="I15" s="76"/>
+      <x:c r="J15" s="76"/>
+      <x:c r="K15" s="76"/>
     </x:row>
     <x:row r="16" spans="1:11" s="24" customFormat="1" ht="30.75" customHeight="1">
-      <x:c r="A16" s="63"/>
-      <x:c r="B16" s="66"/>
-      <x:c r="C16" s="66"/>
-      <x:c r="D16" s="72"/>
-      <x:c r="E16" s="75"/>
-      <x:c r="F16" s="69"/>
-      <x:c r="G16" s="69"/>
+      <x:c r="A16" s="62"/>
+      <x:c r="B16" s="65"/>
+      <x:c r="C16" s="65"/>
+      <x:c r="D16" s="68"/>
+      <x:c r="E16" s="71"/>
+      <x:c r="F16" s="74"/>
+      <x:c r="G16" s="74"/>
       <x:c r="H16" s="43"/>
-      <x:c r="I16" s="60"/>
-      <x:c r="J16" s="60"/>
-      <x:c r="K16" s="60"/>
+      <x:c r="I16" s="77"/>
+      <x:c r="J16" s="77"/>
+      <x:c r="K16" s="77"/>
     </x:row>
     <x:row r="17" spans="1:11" ht="13.55000000000000071054">
       <x:c r="A17" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B17" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C17" s="7"/>
       <x:c r="D17" s="19"/>
@@ -2691,8 +2682,12 @@
       <x:c r="K17" s="8"/>
     </x:row>
     <x:row r="18" spans="1:11" ht="13.19999999999999928946" collapsed="1">
-      <x:c r="A18" s="9"/>
-      <x:c r="B18" s="10"/>
+      <x:c r="A18" s="9" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B18" s="10" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="C18" s="10"/>
       <x:c r="D18" s="20"/>
       <x:c r="E18" s="47"/>
@@ -3012,7 +3007,7 @@
     <x:mergeCell ref="J14:J16"/>
     <x:mergeCell ref="K14:K16"/>
   </x:mergeCells>
-  <x:pageMargins left="0.11805555224418640137" right="0.11805555224418640137" top="0.11805555224418640137" bottom="0.11805555224418640137" header="0.51180553436279296875" footer="0.31486111879348754883"/>
+  <x:pageMargins left="0.11791666597127914429" right="0.11791666597127914429" top="0.11791666597127914429" bottom="0.11791666597127914429" header="0.51166665554046630859" footer="0.31486111879348754883"/>
   <x:pageSetup paperSize="9" scale="54" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3022,7 +3017,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A20" activeCellId="0" sqref="A20:A20"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3030,7 +3025,7 @@
   <x:sheetData>
     <x:row r="29" ht="14.25" customHeight="1"/>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>

--- a/doc/1. [SE] SRS (& System testing).xlsx
+++ b/doc/1. [SE] SRS (& System testing).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwerl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D8ADFB-808F-4C96-A0D0-DE6087406FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F5C23F-4299-405E-A83F-863E660AA7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>추적성
 (Traceability)</t>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>김정우</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 실험 2</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1145,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1146,7 +1154,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1514,7 +1522,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1849,8 +1857,12 @@
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="C24" s="27"/>
       <c r="D24" s="33"/>
       <c r="E24" s="51"/>

--- a/doc/1. [SE] SRS (& System testing).xlsx
+++ b/doc/1. [SE] SRS (& System testing).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balls\Documents\sogong\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Education\2025년도 2학기\[2025.09.01~2025.12.XX] 소프트웨어공학\2. 레포트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D2832F-E912-4CA6-9A9C-11163E798215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD5AEE4-9948-4C79-BBEF-FB7BF621A4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="14" r:id="rId1"/>
@@ -21,11 +21,96 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">SRS!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBL 부가서비스 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBL부가서비스 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBL Envelope 전자문서 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBL Advice 전자문서 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBL 전자문서 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBL 전자문서 송신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBL 전자문서 수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEnvelope 전자문서 송신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShippingRequest 전자문서 수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Project description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,68 +802,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -793,10 +881,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,16 +917,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,19 +941,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1343,39 +1437,39 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="22.9140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="33.58203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="21.4140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="29.4140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="33" style="21" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="21" customWidth="1"/>
-    <col min="9" max="9" width="11.58203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.58203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="8.9140625" style="21"/>
+    <col min="1" max="1" width="14.109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="33" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
+      <c r="A1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="2"/>
@@ -1389,14 +1483,14 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="A3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -1404,14 +1498,14 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -1419,14 +1513,14 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>15</v>
+      <c r="A5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1436,9 +1530,9 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1447,9 +1541,9 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1458,9 +1552,9 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1468,433 +1562,491 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="C9" s="21"/>
+    <row r="9" spans="1:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="C9" s="22"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="17">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:11" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A13" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" s="24" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="61" t="s">
+    <row r="13" spans="1:11" s="24" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A13" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" s="25" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A14" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="25" customFormat="1" ht="13.5">
+      <c r="A15" s="65"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+    </row>
+    <row r="16" spans="1:11" s="25" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A16" s="66"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.5">
+      <c r="A17" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="58" t="s">
+      <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="24" customFormat="1" ht="16">
-      <c r="A15" s="62"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-    </row>
-    <row r="16" spans="1:11" s="24" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-    </row>
-    <row r="17" spans="1:11" ht="16">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="35"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="8"/>
       <c r="H17" s="12"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" ht="16" collapsed="1">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:11" ht="13.5">
+      <c r="A18" s="9">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="36"/>
+      <c r="C18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="84.75" hidden="1" customHeight="1">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:11" ht="84.75" customHeight="1" outlineLevel="1">
+      <c r="A19" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="44"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" ht="38.25" hidden="1" customHeight="1">
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" ht="38.25" customHeight="1" outlineLevel="1">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="44"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="47.25" hidden="1" customHeight="1">
-      <c r="A21" s="9"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" ht="47.25" customHeight="1" outlineLevel="1">
+      <c r="A21" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="36"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="36" hidden="1" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" ht="36" customHeight="1" outlineLevel="1">
+      <c r="A22" s="28"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="26"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="45"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-    </row>
-    <row r="23" spans="1:11" s="42" customFormat="1" ht="84" hidden="1" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="33"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" s="45" customFormat="1" ht="84" customHeight="1" outlineLevel="1">
+      <c r="A23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="36"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="36"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" ht="16">
-      <c r="A24" s="29"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="4"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" ht="13.5">
+      <c r="A24" s="32">
+        <v>2</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="16" collapsed="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" ht="63.75" hidden="1" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" ht="144" hidden="1" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="1:11" ht="45.75" hidden="1" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" ht="16" collapsed="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="18"/>
+    <row r="25" spans="1:11" ht="27">
+      <c r="A25" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A26" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" ht="144" customHeight="1" outlineLevel="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" ht="45.75" customHeight="1" outlineLevel="1">
+      <c r="A28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" ht="27">
+      <c r="A29" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="19"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" ht="45.75" hidden="1" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" ht="38.25" hidden="1" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" ht="16">
-      <c r="A32" s="29"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="1:11" ht="16" collapsed="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="18"/>
+    <row r="30" spans="1:11" ht="45.75" customHeight="1" outlineLevel="1">
+      <c r="A30" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" ht="38.25" customHeight="1" outlineLevel="1">
+      <c r="A31" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="1:11" ht="13.5">
+      <c r="A32" s="32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="1:11" ht="27">
+      <c r="A33" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="54"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="19"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" ht="34.5" hidden="1" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-    </row>
-    <row r="35" spans="1:11" ht="40.5" hidden="1" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="1:11" ht="16">
-      <c r="A36" s="28"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-    </row>
-    <row r="37" spans="1:11" ht="16" collapsed="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="18"/>
+    <row r="34" spans="1:11" ht="34.5" customHeight="1" outlineLevel="1">
+      <c r="A34" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+    </row>
+    <row r="35" spans="1:11" ht="40.5" customHeight="1" outlineLevel="1">
+      <c r="A35" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.5">
+      <c r="A36" s="31">
+        <v>4</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+    </row>
+    <row r="37" spans="1:11" ht="27">
+      <c r="A37" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="19"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" ht="48" hidden="1" customHeight="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-    </row>
-    <row r="39" spans="1:11" ht="40.5" hidden="1" customHeight="1">
-      <c r="A39" s="28"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="32"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-    </row>
-    <row r="41" spans="1:11" ht="16">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" ht="16">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="I42" s="4"/>
+    <row r="38" spans="1:11" ht="48" customHeight="1" outlineLevel="1">
+      <c r="A38" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+    </row>
+    <row r="39" spans="1:11" ht="40.5" customHeight="1" outlineLevel="1">
+      <c r="A39" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="40" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="35"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+    </row>
+    <row r="41" spans="1:11" ht="13.5">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:11" ht="13.5">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="I42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1917,6 +2069,9 @@
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="28" max="19" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -1928,7 +2083,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="29" ht="14.25" customHeight="1"/>
   </sheetData>

--- a/doc/1. [SE] SRS (& System testing).xlsx
+++ b/doc/1. [SE] SRS (& System testing).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwerl\OneDrive\바탕 화면\수업\3학년 2학기\소프트웨어공학\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heo Taegyu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD9853-9415-42B7-AFF9-948B655E05F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851D10E-F680-43AD-B09D-BDE497933B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>알림</t>
   </si>
@@ -147,9 +147,6 @@
     <t>UI/UX</t>
   </si>
   <si>
-    <t>댓글 생성</t>
-  </si>
-  <si>
     <t>게시글 평가</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>개발자가 관리자 계정을 임의로 생성한다</t>
   </si>
   <si>
-    <t>관리자 도구(다른 사용자 정보 관리)</t>
-  </si>
-  <si>
     <t>(본 프로젝트에 대한 전반적인 요약문)</t>
   </si>
   <si>
@@ -350,10 +344,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>16</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>16.1</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -559,6 +549,170 @@
   </si>
   <si>
     <t>8.1.2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.1.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.1.2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 임의의 게시글에 대하여 답하여 짧은 글을 생성하는 기능</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 댓글을 생성할 임의의 게시글 페이지로 이동해야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 게시글 아래 입력 박스를 통해 적어도 1자 이상의 텍스트를 입력해야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.1.3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 텍스트 입력 후 댓글을 서버에 전송하기 위해 적절한 버튼을 클릭해야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 댓글을 서버에 전송하기 위한 버튼을 클릭 후 일정시간이 지나도록 적절한 텍스트 데이터가 서버에 도착하지 않았다면, 페이지는 새로고침되며, 오류 메시지를 띄워야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.1.4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.1.5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.1.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 기존에 생성한 댓글을 수정하는 기능</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 수정할 댓글이 존재하는 게시글 페이지로 이동해야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템은 로그인 정보를 기반으로 사용자가 입력한 댓글과 그렇지 않은 댓글을 구분하여 수정 가능 여부를 표시해야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 자신이 생성한 임의의 댓글 박스에 표시된 수정용 버튼을 클릭하여 기존에 입력한 댓글을 수정할 수 있다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 생성</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템은 댓글 수정 요청이 들어오면 로그인 정보를 기반으로 작성자가 맞는 경우에만 그 요청을 수락해야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 전송한 정보가 잘전송되었다면, 페이지는 즉시로 새로고침되어 사용자가 생성한 댓글이 사용자의 이름, 생성 시간과 함께 게시글 아래에 표시되어야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.1.2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.1.3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.1.4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.1.5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 기존에 생성한 댓글을 삭제하는 기능</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 삭제할 댓글이 존재하는 게시글 페이지로 이동해야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템은 로그인 정보를 기반으로 사용자가 입력한 댓글과 그렇지 않은 댓글을 구분하여 삭제 가능 여부를 표시해야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>141.6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.1.7</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템은 댓글 수정 요청 이전에 입력된 내용과 현재 입력된 내용을 비교하여, 달라진 것이 있다면 시스템은 댓글의 생성시간을 업데이트 해야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 수정 가능한 댓글은 실제 화면에 표시된 댓글이 아닌 댓글을 생성하기 위한 프롬프트로 한정되며, 적어도 1자 이상이어야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템은 댓글 수정이 완료되었다면, 즉시로 페이지를 새로고침에 화면에 표시해야 하며, 요청이 제대로 처리되지 않았다면, 오류 메시지를 표시하고 페이지를 새로고침 해야한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 자신이 생성한 임의의 댓글 박스에 표시된 삭제용 버튼을 클릭하여 기존에 입력한 댓글을 삭제할 수 있다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템은 댓글 삭제 요청이 들어오면 로그인 정보를 기반으로 작성자가 맞는 경우에만 그 요청을 수락해야 한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템은 댓글 삭제가 완료되었다면, 즉시로 페이지를 새로고침에 화면에 표시해야 하며, 요청이 제대로 처리되지 않았다면, 오류 메시지를 표시하고 페이지를 새로고침 해야한다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.1.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.1.2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.1.3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.1.4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.1.5</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +841,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -986,6 +1140,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -994,7 +1177,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1049,12 +1232,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,9 +1245,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1203,6 +1377,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1768,44 +1957,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.05859375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.9375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.5859375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="33.5859375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="21.41015625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="29.41015625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.9140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.58203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="21.4140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29.4140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="33" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.76171875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="11.5859375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.5859375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="10.64453125" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="8.9375" style="12"/>
+    <col min="8" max="8" width="11.75" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.58203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="8.9140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1816,45 +2005,45 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+        <v>46</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1863,7 +2052,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="7">
         <v>22212017</v>
@@ -1878,7 +2067,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -1889,7 +2078,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
@@ -1900,12 +2089,12 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>22313549</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1914,7 +2103,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="4"/>
@@ -1925,7 +2114,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4"/>
@@ -1936,7 +2125,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="16.899999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="5"/>
@@ -1945,77 +2134,77 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52" t="s">
+    <row r="14" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="61" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="67" t="s">
+      <c r="I14" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="65"/>
+      <c r="K14" s="52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="53"/>
-    </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="54"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="50"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="1:11" s="15" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>3</v>
       </c>
@@ -2027,12 +2216,12 @@
       <c r="E17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="22"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -2044,12 +2233,12 @@
       <c r="E18" s="17"/>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="22"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="20"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>4</v>
       </c>
@@ -2061,12 +2250,12 @@
       <c r="E19" s="17"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>4</v>
       </c>
@@ -2078,12 +2267,12 @@
       <c r="E20" s="17"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="20"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>1</v>
       </c>
@@ -2095,97 +2284,97 @@
       <c r="E21" s="17"/>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="22"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="20"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="22"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="20"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="22"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="20"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="22"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="20"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="22"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="20"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>9</v>
       </c>
@@ -2197,31 +2386,31 @@
       <c r="E27" s="17"/>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="22"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="20"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="22"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="20"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -2231,959 +2420,1301 @@
       <c r="E29" s="17"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="22"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="20"/>
+      <c r="J29" s="18"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="22"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="20"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="22"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="20"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="22"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="20"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="22"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="20"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="17"/>
     </row>
-    <row r="34" spans="1:11" ht="63.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="22"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="20"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="17"/>
     </row>
-    <row r="35" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="22"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="20"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="22"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="20"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="17"/>
     </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="34">
+    <row r="37" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31">
         <v>8</v>
       </c>
-      <c r="B37" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="1:11" s="5" customFormat="1" ht="45.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34">
+      <c r="B37" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+    </row>
+    <row r="38" spans="1:11" s="5" customFormat="1" ht="45.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31">
         <v>8.1</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-    </row>
-    <row r="39" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="34"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+    </row>
+    <row r="39" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="31"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="33"/>
+    </row>
+    <row r="40" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="46"/>
+        <v>148</v>
+      </c>
+      <c r="B40" s="43"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="22"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="20"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>146</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="22"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="17"/>
-      <c r="J41" s="20"/>
+      <c r="J41" s="18"/>
       <c r="K41" s="17"/>
     </row>
-    <row r="42" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="46"/>
+        <v>142</v>
+      </c>
+      <c r="B42" s="43"/>
       <c r="C42" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="22"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="17"/>
-      <c r="J42" s="20"/>
+      <c r="J42" s="18"/>
       <c r="K42" s="17"/>
     </row>
-    <row r="43" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="22"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="17"/>
-      <c r="J43" s="20"/>
+      <c r="J43" s="18"/>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="28"/>
+    </row>
+    <row r="45" spans="1:11" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="28"/>
+    </row>
+    <row r="46" spans="1:11" s="5" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
+        <v>10.1</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="32"/>
+    </row>
+    <row r="47" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="31"/>
-    </row>
-    <row r="45" spans="1:11" s="5" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="31"/>
-    </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="34">
-        <v>10.1</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34" t="s">
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="32"/>
+    </row>
+    <row r="48" spans="1:11" s="5" customFormat="1" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="35"/>
-    </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34" t="s">
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="32"/>
+    </row>
+    <row r="49" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="35"/>
-    </row>
-    <row r="48" spans="1:11" s="5" customFormat="1" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="32"/>
+    </row>
+    <row r="50" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33">
+        <v>11</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="32"/>
+    </row>
+    <row r="51" spans="1:11" s="5" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
+        <v>11.1</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="32"/>
+    </row>
+    <row r="52" spans="1:11" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="42"/>
+    </row>
+    <row r="53" spans="1:11" s="5" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="26"/>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="39"/>
+    </row>
+    <row r="55" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="24">
+        <v>12.1</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="30"/>
+    </row>
+    <row r="56" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="35"/>
-    </row>
-    <row r="49" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34" t="s">
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="30"/>
+    </row>
+    <row r="57" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="30"/>
+    </row>
+    <row r="58" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="30"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="30"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="30"/>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="35"/>
-    </row>
-    <row r="50" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="36">
-        <v>11</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="35"/>
-    </row>
-    <row r="51" spans="1:11" s="5" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="27">
-        <v>11.1</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="35"/>
-    </row>
-    <row r="52" spans="1:11" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="45"/>
-    </row>
-    <row r="53" spans="1:11" s="5" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="29"/>
-    </row>
-    <row r="54" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="42"/>
-    </row>
-    <row r="55" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="27">
-        <v>12.1</v>
-      </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="33"/>
-    </row>
-    <row r="56" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="33"/>
-    </row>
-    <row r="57" spans="1:11" ht="29.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="33"/>
-    </row>
-    <row r="58" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="33"/>
-    </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="33"/>
-    </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="33"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="19"/>
-    </row>
-    <row r="62" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="17"/>
-    </row>
-    <row r="63" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+    </row>
+    <row r="62" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>32</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B63" s="17"/>
       <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
+      <c r="D63" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="E63" s="17"/>
-      <c r="F63" s="16"/>
+      <c r="F63" s="17"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="22"/>
+      <c r="H63" s="68"/>
       <c r="I63" s="17"/>
-      <c r="J63" s="20"/>
+      <c r="J63" s="17"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>54</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B64" s="17"/>
       <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="D64" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="16"/>
+      <c r="F64" s="17"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="22"/>
+      <c r="H64" s="68"/>
       <c r="I64" s="17"/>
-      <c r="J64" s="20"/>
+      <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="B65" s="17"/>
-      <c r="C65" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="E65" s="17"/>
-      <c r="F65" s="16"/>
+      <c r="F65" s="17"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="22"/>
+      <c r="H65" s="68"/>
       <c r="I65" s="17"/>
-      <c r="J65" s="20"/>
+      <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="E66" s="17"/>
-      <c r="F66" s="16"/>
+      <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="22"/>
+      <c r="H66" s="68"/>
       <c r="I66" s="17"/>
-      <c r="J66" s="20"/>
+      <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="E67" s="17"/>
-      <c r="F67" s="16"/>
+      <c r="F67" s="17"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="22"/>
+      <c r="H67" s="68"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="20"/>
+      <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B68" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="C68" s="17"/>
-      <c r="D68" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="D68" s="17"/>
       <c r="E68" s="17"/>
-      <c r="F68" s="16"/>
+      <c r="F68" s="17"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="22"/>
+      <c r="H68" s="68"/>
       <c r="I68" s="17"/>
-      <c r="J68" s="20"/>
+      <c r="J68" s="17"/>
       <c r="K68" s="17"/>
     </row>
-    <row r="69" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17" t="s">
-        <v>44</v>
-      </c>
+      <c r="C69" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="17"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="16"/>
+      <c r="F69" s="17"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="22"/>
+      <c r="H69" s="68"/>
       <c r="I69" s="17"/>
-      <c r="J69" s="20"/>
+      <c r="J69" s="17"/>
       <c r="K69" s="17"/>
     </row>
-    <row r="70" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="E70" s="17"/>
-      <c r="F70" s="16"/>
+      <c r="F70" s="17"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="22"/>
+      <c r="H70" s="68"/>
       <c r="I70" s="17"/>
-      <c r="J70" s="20"/>
+      <c r="J70" s="17"/>
       <c r="K70" s="17"/>
     </row>
-    <row r="71" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="E71" s="17"/>
-      <c r="F71" s="16"/>
+      <c r="F71" s="17"/>
       <c r="G71" s="17"/>
-      <c r="H71" s="22"/>
+      <c r="H71" s="68"/>
       <c r="I71" s="17"/>
-      <c r="J71" s="20"/>
+      <c r="J71" s="17"/>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="17"/>
+    <row r="72" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="E72" s="17"/>
-      <c r="F72" s="16"/>
+      <c r="F72" s="17"/>
       <c r="G72" s="17"/>
-      <c r="H72" s="22"/>
+      <c r="H72" s="68"/>
       <c r="I72" s="17"/>
-      <c r="J72" s="20"/>
+      <c r="J72" s="17"/>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>0</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B73" s="17"/>
       <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
+      <c r="D73" s="17" t="s">
+        <v>180</v>
+      </c>
       <c r="E73" s="17"/>
-      <c r="F73" s="16"/>
+      <c r="F73" s="17"/>
       <c r="G73" s="17"/>
-      <c r="H73" s="22"/>
+      <c r="H73" s="68"/>
       <c r="I73" s="17"/>
-      <c r="J73" s="20"/>
+      <c r="J73" s="17"/>
       <c r="K73" s="17"/>
     </row>
-    <row r="74" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="B74" s="17"/>
-      <c r="C74" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="E74" s="17"/>
-      <c r="F74" s="16"/>
+      <c r="F74" s="17"/>
       <c r="G74" s="17"/>
-      <c r="H74" s="22"/>
+      <c r="H74" s="68"/>
       <c r="I74" s="17"/>
-      <c r="J74" s="20"/>
+      <c r="J74" s="17"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="16"/>
+      <c r="F75" s="17"/>
       <c r="G75" s="17"/>
-      <c r="H75" s="22"/>
+      <c r="H75" s="68"/>
       <c r="I75" s="17"/>
-      <c r="J75" s="20"/>
+      <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="E76" s="17"/>
-      <c r="F76" s="16"/>
+      <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="22"/>
+      <c r="H76" s="68"/>
       <c r="I76" s="17"/>
-      <c r="J76" s="20"/>
+      <c r="J76" s="17"/>
       <c r="K76" s="17"/>
     </row>
-    <row r="77" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" s="17"/>
+        <v>96</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="C77" s="17"/>
-      <c r="D77" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="D77" s="17"/>
       <c r="E77" s="17"/>
-      <c r="F77" s="16"/>
+      <c r="F77" s="17"/>
       <c r="G77" s="17"/>
-      <c r="H77" s="22"/>
+      <c r="H77" s="68"/>
       <c r="I77" s="17"/>
-      <c r="J77" s="20"/>
+      <c r="J77" s="17"/>
       <c r="K77" s="17"/>
     </row>
-    <row r="78" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="C78" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="17"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="16"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="17"/>
-      <c r="H78" s="22"/>
+      <c r="H78" s="68"/>
       <c r="I78" s="17"/>
-      <c r="J78" s="20"/>
+      <c r="J78" s="17"/>
       <c r="K78" s="17"/>
     </row>
-    <row r="79" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="E79" s="17"/>
-      <c r="F79" s="16"/>
+      <c r="F79" s="17"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="22"/>
+      <c r="H79" s="68"/>
       <c r="I79" s="17"/>
-      <c r="J79" s="20"/>
+      <c r="J79" s="17"/>
       <c r="K79" s="17"/>
     </row>
-    <row r="80" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="E80" s="17"/>
-      <c r="F80" s="16"/>
+      <c r="F80" s="17"/>
       <c r="G80" s="17"/>
-      <c r="H80" s="22"/>
+      <c r="H80" s="68"/>
       <c r="I80" s="17"/>
-      <c r="J80" s="20"/>
+      <c r="J80" s="17"/>
       <c r="K80" s="17"/>
     </row>
-    <row r="81" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
+      <c r="D81" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="E81" s="17"/>
-      <c r="F81" s="16"/>
+      <c r="F81" s="17"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="22"/>
+      <c r="H81" s="68"/>
       <c r="I81" s="17"/>
-      <c r="J81" s="20"/>
+      <c r="J81" s="17"/>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>35</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B82" s="17"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
+      <c r="D82" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="E82" s="17"/>
-      <c r="F82" s="16"/>
+      <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="22"/>
+      <c r="H82" s="68"/>
       <c r="I82" s="17"/>
-      <c r="J82" s="20"/>
+      <c r="J82" s="17"/>
       <c r="K82" s="17"/>
     </row>
-    <row r="83" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="B83" s="17"/>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="17"/>
+      <c r="D83" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+    </row>
+    <row r="84" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="17"/>
-    </row>
-    <row r="84" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="D84" s="17"/>
       <c r="E84" s="17"/>
-      <c r="F84" s="16"/>
+      <c r="F84" s="17"/>
       <c r="G84" s="17"/>
-      <c r="H84" s="22"/>
+      <c r="H84" s="68"/>
       <c r="I84" s="17"/>
-      <c r="J84" s="20"/>
+      <c r="J84" s="17"/>
       <c r="K84" s="17"/>
     </row>
-    <row r="85" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+    </row>
+    <row r="87" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="68"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+    </row>
+    <row r="93" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+    </row>
+    <row r="94" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="68"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+    </row>
+    <row r="95" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+    </row>
+    <row r="96" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+    </row>
+    <row r="99" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="17"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="17"/>
+    </row>
+    <row r="102" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="17"/>
+    </row>
+    <row r="103" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="17"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="17"/>
+    </row>
+    <row r="104" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="17"/>
-    </row>
-    <row r="86" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23" t="s">
+      <c r="E104" s="17"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="69"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="17"/>
+    </row>
+    <row r="105" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="23"/>
-    </row>
+      <c r="E105" s="21"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="21"/>
+    </row>
+    <row r="106" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="H106" s="71"/>
+    </row>
+    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="16" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:K1"/>
@@ -3216,9 +3747,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/doc/1. [SE] SRS (& System testing).xlsx
+++ b/doc/1. [SE] SRS (& System testing).xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heo Taegyu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balls\Documents\sogong\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851D10E-F680-43AD-B09D-BDE497933B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2550FBE-4FE8-4893-8ABA-6D5439E006D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
     <sheet name="Reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SRS!$A$1:$I$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SRS!$A$1:$I$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">SRS!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>알림</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>로그인</t>
@@ -404,10 +401,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>17.1.7</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>18</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -713,6 +706,236 @@
   </si>
   <si>
     <t>15.1.5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.1.7</t>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 새 계정을 생성하는 기능</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 이메일, 비밀번호, 닉네임을 필수로 입력 해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>시스템은 이메일 중복 여부를 확인 해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>시스템은 비밀번호 규칙에 따라 비밀번호의 유효성을 검사해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>사용자는 가입시 이용약관, 개인정보 수집에 동의해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>시스템은 CAPTCHA를 통해 사용자가 사람인지 확인해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>회원가입 성공시 내 정보 관리 화면으로 이동하거나 메인 화면으로 이동해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>비밀번호는 단방향 암호화를 통해 암호화해 저장해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>가입 후 이메일 인증을 해야 계정이 활성화됨</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 회원가입을 통해 만든 계정으로 접속하는 기능</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 이메일, 비밀번호를 필수로 입력해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>시스템은 계정의 존재 여부와 비밀번호의 일치 여부를 확인해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>시스템은 계정이 정지되었거나 이메일 인증이 완료되지 않았다면 활동을 제한해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>시스템은 로그인 실패 후 재시도시 CAPTCHA를 통해 사람인지 확인해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>로그인 성공시 메인 화면으로 이동해야 함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>시스템은 로그인 성공시 사용자에게 세션 또는 토큰을 부여해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 세션을 종료하는 기능</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템은 사용자가 로그아웃을 수행하면 즉시 세션을 무효화 해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>로그아웃 후 메인 화면으로 이동해야 함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 자신의 계정이나 작성글/댓글을 관리할 수 있는 기능</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 내 정보관리에 진입하기 위해서는 비밀번호를 재입력 하고 CAPTCHA를 완료해야함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>사용자는 이메일, 비밀번호, 닉네임을 변경할 수 있어야 함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>사용자는 이메일, 비밀번호 변경하려면 이메일 인증을 해야함(이메일 변경시에는 구, 신 이메일 모두 인증)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.4</t>
+  </si>
+  <si>
+    <t>사용자는 이용약관, 개인정보 수집정책을 열람할 수 있어야 함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.5</t>
+  </si>
+  <si>
+    <t>사용자는 최근 로그인 이력을 조회할 수 있어야 함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.6</t>
+  </si>
+  <si>
+    <t>로그인 이력에는 로그인 시간, 기기(브라우저), IP주소 일부가 표시되어야 함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.7</t>
+  </si>
+  <si>
+    <t>사용자는 본인이 작성한 글과 댓글을 조회할 수 있어야 함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.8</t>
+  </si>
+  <si>
+    <t>사용자는 회원 탈퇴를 요청할 수 있어야 함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템은 회원탈퇴 요청을 받으면 계정을 즉시 비활성화 하고 일정기간 이상 로그인이 없으면 계정을 영구 삭제해야 함</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정우</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종선</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +946,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -816,6 +1039,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1177,7 +1408,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1310,6 +1541,21 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1337,15 +1583,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1379,19 +1616,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1957,10 +2200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1980,19 +2223,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="A1" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -2007,13 +2250,13 @@
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -2022,13 +2265,13 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+        <v>45</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2037,13 +2280,13 @@
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2058,7 +2301,7 @@
         <v>22212017</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2069,8 +2312,12 @@
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="7">
+        <v>21912130</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>249</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -2080,8 +2327,12 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="7">
+        <v>22211996</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -2094,7 +2345,7 @@
         <v>22313549</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2135,1586 +2386,2068 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="53" t="s">
+      <c r="A14" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="52" t="s">
-        <v>54</v>
+      <c r="I14" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="62"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="50"/>
-    </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="63"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="55"/>
+    </row>
+    <row r="16" spans="1:11" s="15" customFormat="1" ht="56.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="51"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="56"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="56"/>
+    </row>
+    <row r="17" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="19"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="72"/>
+    </row>
+    <row r="18" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="17"/>
+        <v>189</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="19"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="72"/>
+    </row>
+    <row r="19" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>31</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="E19" s="17"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
-        <v>4</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="72"/>
+    </row>
+    <row r="20" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>194</v>
+      </c>
       <c r="E20" s="17"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="19"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="72"/>
+    </row>
+    <row r="21" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="E21" s="17"/>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="19"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="72"/>
+    </row>
+    <row r="22" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="E22" s="17"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="19"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="72"/>
+    </row>
+    <row r="23" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="19"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="72"/>
+    </row>
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="19"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="72"/>
+    </row>
+    <row r="25" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="19"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="72"/>
+    </row>
+    <row r="26" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="19"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="72"/>
+    </row>
+    <row r="27" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="19"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="72"/>
+    </row>
+    <row r="28" spans="1:11" s="15" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="19"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="72"/>
+    </row>
+    <row r="29" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="17"/>
-    </row>
-    <row r="30" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="19"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="72"/>
+    </row>
+    <row r="30" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="19"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="72"/>
+    </row>
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="17"/>
-    </row>
-    <row r="32" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="19"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="72"/>
+    </row>
+    <row r="32" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="19"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="72"/>
+    </row>
+    <row r="33" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>38</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>218</v>
+      </c>
       <c r="E33" s="17"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="19"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="72"/>
+    </row>
+    <row r="34" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="C34" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="E34" s="17"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="19"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="72"/>
+    </row>
+    <row r="35" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
-        <v>66</v>
-      </c>
+      <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="19"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="72"/>
+    </row>
+    <row r="36" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="C36" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31">
-        <v>8</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-    </row>
-    <row r="38" spans="1:11" s="5" customFormat="1" ht="45.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31">
-        <v>8.1</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-    </row>
-    <row r="39" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="31"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="33"/>
-    </row>
-    <row r="40" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="19"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="72"/>
+    </row>
+    <row r="37" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="72"/>
+    </row>
+    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="72"/>
+    </row>
+    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>4</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="72"/>
+    </row>
+    <row r="40" spans="1:11" s="15" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17" t="s">
-        <v>145</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="17"/>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="19"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="72"/>
+    </row>
+    <row r="41" spans="1:11" s="15" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>146</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B41" s="17"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="D41" s="17" t="s">
+        <v>230</v>
+      </c>
       <c r="E41" s="17"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="17"/>
-    </row>
-    <row r="42" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="19"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="72"/>
+    </row>
+    <row r="42" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="17"/>
+        <v>231</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="E42" s="17"/>
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="17"/>
-    </row>
-    <row r="43" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="19"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="72"/>
+    </row>
+    <row r="43" spans="1:11" s="15" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="72"/>
+    </row>
+    <row r="44" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="72"/>
+    </row>
+    <row r="45" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="72"/>
+    </row>
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="72"/>
+    </row>
+    <row r="47" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="72"/>
+    </row>
+    <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="72"/>
+    </row>
+    <row r="49" spans="1:11" s="15" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="72"/>
+    </row>
+    <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="74"/>
+    </row>
+    <row r="51" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="17"/>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="17"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="17"/>
+    </row>
+    <row r="54" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="17"/>
-    </row>
-    <row r="44" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="28"/>
-    </row>
-    <row r="45" spans="1:11" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="34" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="17"/>
+    </row>
+    <row r="55" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="17"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="17"/>
+    </row>
+    <row r="57" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="17"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="17"/>
+    </row>
+    <row r="59" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="17"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="17"/>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="28"/>
-    </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="31">
-        <v>10.1</v>
-      </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="32"/>
-    </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="32"/>
-    </row>
-    <row r="48" spans="1:11" s="5" customFormat="1" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="32"/>
-    </row>
-    <row r="49" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="32"/>
-    </row>
-    <row r="50" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33">
-        <v>11</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="32"/>
-    </row>
-    <row r="51" spans="1:11" s="5" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24">
-        <v>11.1</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="32"/>
-    </row>
-    <row r="52" spans="1:11" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="42"/>
-    </row>
-    <row r="53" spans="1:11" s="5" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="26"/>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="39"/>
-    </row>
-    <row r="55" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24">
-        <v>12.1</v>
-      </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="30"/>
-    </row>
-    <row r="56" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="30"/>
-    </row>
-    <row r="57" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="30"/>
-    </row>
-    <row r="58" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="30"/>
-    </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="30"/>
-    </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="30"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="67" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-    </row>
-    <row r="62" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-    </row>
-    <row r="63" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="17"/>
+    </row>
+    <row r="63" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17" t="s">
-        <v>153</v>
-      </c>
+      <c r="C63" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="17"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="68"/>
+      <c r="H63" s="20"/>
       <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
+      <c r="J63" s="18"/>
       <c r="K63" s="17"/>
     </row>
     <row r="64" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="68"/>
+      <c r="H64" s="20"/>
       <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
+      <c r="J64" s="18"/>
       <c r="K64" s="17"/>
     </row>
     <row r="65" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="68"/>
+      <c r="H65" s="20"/>
       <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="J65" s="18"/>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-    </row>
-    <row r="67" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-    </row>
-    <row r="69" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31">
+        <v>8</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+    </row>
+    <row r="67" spans="1:11" s="5" customFormat="1" ht="45.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="31">
+        <v>8.1</v>
+      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+    </row>
+    <row r="68" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="33"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="31"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="31"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="33"/>
+    </row>
+    <row r="69" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="17"/>
+        <v>146</v>
+      </c>
+      <c r="B69" s="43"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
+      <c r="F69" s="16"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="68"/>
+      <c r="H69" s="20"/>
       <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
+      <c r="J69" s="18"/>
       <c r="K69" s="17"/>
     </row>
-    <row r="70" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>144</v>
+      </c>
       <c r="C70" s="17"/>
-      <c r="D70" s="17" t="s">
-        <v>162</v>
-      </c>
+      <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="68"/>
+      <c r="H70" s="20"/>
       <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="J70" s="18"/>
       <c r="K70" s="17"/>
     </row>
     <row r="71" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17" t="s">
-        <v>163</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B71" s="43"/>
+      <c r="C71" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="17"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
+      <c r="F71" s="16"/>
       <c r="G71" s="17"/>
-      <c r="H71" s="68"/>
+      <c r="H71" s="20"/>
       <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
+      <c r="J71" s="18"/>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
-      <c r="H72" s="68"/>
+      <c r="H72" s="20"/>
       <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
+      <c r="J72" s="18"/>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-    </row>
-    <row r="74" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-    </row>
-    <row r="75" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-    </row>
-    <row r="76" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="68"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-    </row>
-    <row r="78" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-    </row>
-    <row r="79" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="68"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-    </row>
-    <row r="80" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-    </row>
-    <row r="81" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="68"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-    </row>
-    <row r="82" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-    </row>
-    <row r="83" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-    </row>
-    <row r="84" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-    </row>
-    <row r="85" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-    </row>
-    <row r="86" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-    </row>
-    <row r="87" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
+    <row r="73" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="28"/>
+    </row>
+    <row r="74" spans="1:11" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="28"/>
+    </row>
+    <row r="75" spans="1:11" s="5" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="31">
+        <v>10.1</v>
+      </c>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="32"/>
+    </row>
+    <row r="76" spans="1:11" s="5" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="32"/>
+    </row>
+    <row r="77" spans="1:11" s="5" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="32"/>
+    </row>
+    <row r="78" spans="1:11" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="32"/>
+    </row>
+    <row r="79" spans="1:11" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="33">
+        <v>11</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="32"/>
+    </row>
+    <row r="80" spans="1:11" s="5" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="24">
+        <v>11.1</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="32"/>
+    </row>
+    <row r="81" spans="1:11" s="5" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="42"/>
+    </row>
+    <row r="82" spans="1:11" s="5" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="26"/>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="39"/>
+    </row>
+    <row r="84" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="24">
+        <v>12.1</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="30"/>
+    </row>
+    <row r="85" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="30"/>
+    </row>
+    <row r="86" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="30"/>
+    </row>
+    <row r="87" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="30"/>
     </row>
     <row r="88" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
+      <c r="A88" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="30"/>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="68"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
+      <c r="A89" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="30"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-    </row>
-    <row r="91" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="68"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-    </row>
-    <row r="92" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+    </row>
+    <row r="91" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+    </row>
+    <row r="92" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>0</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B92" s="17"/>
       <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
+      <c r="D92" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="68"/>
+      <c r="H92" s="45"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
     </row>
-    <row r="93" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="B93" s="17"/>
-      <c r="C93" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="68"/>
+      <c r="H93" s="45"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
     </row>
     <row r="94" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
-      <c r="H94" s="68"/>
+      <c r="H94" s="45"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
     </row>
-    <row r="95" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="17" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
-      <c r="H95" s="68"/>
+      <c r="H95" s="45"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
-      <c r="H96" s="68"/>
+      <c r="H96" s="45"/>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B97" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="C97" s="17"/>
-      <c r="D97" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="D97" s="17"/>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
-      <c r="H97" s="68"/>
+      <c r="H97" s="45"/>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="C98" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
-      <c r="H98" s="68"/>
+      <c r="H98" s="45"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
     </row>
-    <row r="99" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
-      <c r="H99" s="68"/>
+      <c r="H99" s="45"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
     </row>
-    <row r="100" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
+      <c r="D100" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="E100" s="17"/>
-      <c r="F100" s="16"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="17"/>
-      <c r="H100" s="68"/>
+      <c r="H100" s="45"/>
       <c r="I100" s="17"/>
-      <c r="J100" s="18"/>
+      <c r="J100" s="17"/>
       <c r="K100" s="17"/>
     </row>
-    <row r="101" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>35</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B101" s="17"/>
       <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
+      <c r="D101" s="17" t="s">
+        <v>162</v>
+      </c>
       <c r="E101" s="17"/>
-      <c r="F101" s="16"/>
+      <c r="F101" s="17"/>
       <c r="G101" s="17"/>
-      <c r="H101" s="68"/>
+      <c r="H101" s="45"/>
       <c r="I101" s="17"/>
-      <c r="J101" s="18"/>
+      <c r="J101" s="17"/>
       <c r="K101" s="17"/>
     </row>
-    <row r="102" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="B102" s="17"/>
-      <c r="C102" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="E102" s="17"/>
-      <c r="F102" s="16"/>
+      <c r="F102" s="17"/>
       <c r="G102" s="17"/>
-      <c r="H102" s="20"/>
+      <c r="H102" s="45"/>
       <c r="I102" s="17"/>
-      <c r="J102" s="18"/>
+      <c r="J102" s="17"/>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="E103" s="17"/>
-      <c r="F103" s="16"/>
+      <c r="F103" s="17"/>
       <c r="G103" s="17"/>
-      <c r="H103" s="20"/>
+      <c r="H103" s="45"/>
       <c r="I103" s="17"/>
-      <c r="J103" s="18"/>
+      <c r="J103" s="17"/>
       <c r="K103" s="17"/>
     </row>
-    <row r="104" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="E104" s="17"/>
-      <c r="F104" s="16"/>
+      <c r="F104" s="17"/>
       <c r="G104" s="17"/>
-      <c r="H104" s="69"/>
+      <c r="H104" s="45"/>
       <c r="I104" s="17"/>
-      <c r="J104" s="18"/>
+      <c r="J104" s="17"/>
       <c r="K104" s="17"/>
     </row>
-    <row r="105" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="21"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="21"/>
-    </row>
-    <row r="106" spans="1:11" ht="16" x14ac:dyDescent="0.25">
-      <c r="H106" s="71"/>
-    </row>
-    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="16" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+    </row>
+    <row r="107" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+    </row>
+    <row r="108" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+    </row>
+    <row r="109" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+    </row>
+    <row r="110" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+    </row>
+    <row r="111" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+    </row>
+    <row r="112" spans="1:11" ht="80.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+    </row>
+    <row r="113" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+    </row>
+    <row r="114" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+    </row>
+    <row r="115" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+    </row>
+    <row r="116" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+    </row>
+    <row r="117" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+    </row>
+    <row r="119" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="45"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="45"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+    </row>
+    <row r="121" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+    </row>
+    <row r="122" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+    </row>
+    <row r="123" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+    </row>
+    <row r="124" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+    </row>
+    <row r="125" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+    </row>
+    <row r="126" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+    </row>
+    <row r="127" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="45"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+    </row>
+    <row r="128" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="45"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="17"/>
+    </row>
+    <row r="130" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="17"/>
+    </row>
+    <row r="131" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="17"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="17"/>
+    </row>
+    <row r="132" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="17"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="17"/>
+    </row>
+    <row r="133" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="21"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="23"/>
+      <c r="K133" s="21"/>
+    </row>
+    <row r="134" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="H134" s="48"/>
+    </row>
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="16" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:K1"/>

--- a/doc/1. [SE] SRS (& System testing).xlsx
+++ b/doc/1. [SE] SRS (& System testing).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balls\Documents\sogong\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2550FBE-4FE8-4893-8ABA-6D5439E006D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9A798-5594-49A7-BD14-87326B605300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5690" yWindow="500" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>알림</t>
   </si>
@@ -936,6 +936,18 @@
   </si>
   <si>
     <t>박종선</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>허태규</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 도구</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1408,7 +1420,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1556,6 +1568,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1583,6 +1607,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1616,26 +1649,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2200,10 +2219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K150"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2223,19 +2242,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -2252,11 +2271,11 @@
       <c r="A3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -2267,11 +2286,11 @@
       <c r="A4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2356,8 +2375,12 @@
     </row>
     <row r="10" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="77">
+        <v>22012146</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>251</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2386,74 +2409,74 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="70" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="61" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="64"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="55"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="56.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="65"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="56"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="60"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
@@ -2468,9 +2491,9 @@
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="72"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
@@ -2485,9 +2508,9 @@
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="72"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
@@ -2502,9 +2525,9 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="72"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
@@ -2519,9 +2542,9 @@
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="72"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
@@ -2536,9 +2559,9 @@
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="72"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
@@ -2553,9 +2576,9 @@
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="72"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
@@ -2570,9 +2593,9 @@
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="72"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="49"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
@@ -2587,9 +2610,9 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="72"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="49"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
@@ -2604,9 +2627,9 @@
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="72"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="49"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
@@ -2621,9 +2644,9 @@
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="72"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="49"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
@@ -2638,9 +2661,9 @@
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="72"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="49"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
@@ -2655,9 +2678,9 @@
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="72"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="49"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
@@ -2672,9 +2695,9 @@
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="72"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="49"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
@@ -2689,9 +2712,9 @@
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="72"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="49"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
@@ -2706,9 +2729,9 @@
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="72"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="49"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
@@ -2723,9 +2746,9 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="72"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="49"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
@@ -2740,9 +2763,9 @@
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="72"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="49"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
@@ -2757,9 +2780,9 @@
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="72"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="49"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
@@ -2774,9 +2797,9 @@
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="72"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="49"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
@@ -2791,9 +2814,9 @@
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="72"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="49"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
@@ -2808,9 +2831,9 @@
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="72"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="49"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
@@ -2825,9 +2848,9 @@
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="72"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="49"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -2842,9 +2865,9 @@
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="72"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="49"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
@@ -2859,9 +2882,9 @@
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="72"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="49"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
@@ -2876,9 +2899,9 @@
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="72"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="49"/>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
@@ -2893,9 +2916,9 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="72"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="49"/>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
@@ -2910,9 +2933,9 @@
       <c r="F43" s="16"/>
       <c r="G43" s="17"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="72"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="49"/>
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
@@ -2927,9 +2950,9 @@
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="72"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="49"/>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
@@ -2944,9 +2967,9 @@
       <c r="F45" s="16"/>
       <c r="G45" s="17"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="72"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="49"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
@@ -2961,9 +2984,9 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="72"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="49"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
@@ -2978,9 +3001,9 @@
       <c r="F47" s="16"/>
       <c r="G47" s="17"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="72"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="49"/>
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
@@ -2995,9 +3018,9 @@
       <c r="F48" s="16"/>
       <c r="G48" s="17"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="72"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="49"/>
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
@@ -3014,9 +3037,9 @@
       <c r="F49" s="16"/>
       <c r="G49" s="17"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="72"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="49"/>
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
@@ -3031,9 +3054,9 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="74"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="51"/>
     </row>
     <row r="51" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
@@ -4072,14 +4095,14 @@
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
     </row>
-    <row r="113" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17" t="s">
-        <v>47</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C113" s="17"/>
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
@@ -4089,15 +4112,15 @@
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
     </row>
-    <row r="114" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="C114" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" s="17"/>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
@@ -4108,12 +4131,12 @@
     </row>
     <row r="115" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
@@ -4123,14 +4146,14 @@
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
     </row>
-    <row r="116" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
@@ -4140,14 +4163,14 @@
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
     </row>
-    <row r="117" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
@@ -4159,12 +4182,12 @@
     </row>
     <row r="118" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
@@ -4176,12 +4199,12 @@
     </row>
     <row r="119" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
@@ -4193,12 +4216,12 @@
     </row>
     <row r="120" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
@@ -4210,13 +4233,13 @@
     </row>
     <row r="121" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>0</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B121" s="17"/>
       <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
+      <c r="D121" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
@@ -4225,14 +4248,14 @@
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
     </row>
-    <row r="122" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17" t="s">
-        <v>50</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="17"/>
       <c r="D122" s="17"/>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
@@ -4242,15 +4265,15 @@
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
     </row>
-    <row r="123" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="48.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="C123" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123" s="17"/>
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
@@ -4261,12 +4284,12 @@
     </row>
     <row r="124" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E124" s="17"/>
       <c r="F124" s="17"/>
@@ -4278,12 +4301,12 @@
     </row>
     <row r="125" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
@@ -4295,12 +4318,12 @@
     </row>
     <row r="126" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
@@ -4312,12 +4335,12 @@
     </row>
     <row r="127" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
@@ -4329,12 +4352,12 @@
     </row>
     <row r="128" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
@@ -4344,49 +4367,49 @@
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
     </row>
-    <row r="129" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>34</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B129" s="17"/>
       <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
+      <c r="D129" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="E129" s="17"/>
-      <c r="F129" s="16"/>
+      <c r="F129" s="17"/>
       <c r="G129" s="17"/>
       <c r="H129" s="45"/>
       <c r="I129" s="17"/>
-      <c r="J129" s="18"/>
+      <c r="J129" s="17"/>
       <c r="K129" s="17"/>
     </row>
-    <row r="130" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17" t="s">
-        <v>46</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="17"/>
       <c r="D130" s="17"/>
       <c r="E130" s="17"/>
       <c r="F130" s="16"/>
       <c r="G130" s="17"/>
-      <c r="H130" s="20"/>
+      <c r="H130" s="45"/>
       <c r="I130" s="17"/>
       <c r="J130" s="18"/>
       <c r="K130" s="17"/>
     </row>
     <row r="131" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="C131" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131" s="17"/>
       <c r="E131" s="17"/>
       <c r="F131" s="16"/>
       <c r="G131" s="17"/>
@@ -4397,42 +4420,58 @@
     </row>
     <row r="132" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E132" s="17"/>
       <c r="F132" s="16"/>
       <c r="G132" s="17"/>
-      <c r="H132" s="46"/>
+      <c r="H132" s="20"/>
       <c r="I132" s="17"/>
       <c r="J132" s="18"/>
       <c r="K132" s="17"/>
     </row>
     <row r="133" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="17"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="17"/>
+    </row>
+    <row r="134" spans="1:11" ht="32.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21" t="s">
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="21"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="47"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="23"/>
-      <c r="K133" s="21"/>
-    </row>
-    <row r="134" spans="1:11" ht="16" x14ac:dyDescent="0.25">
-      <c r="H134" s="48"/>
-    </row>
-    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="23"/>
+      <c r="K134" s="21"/>
+    </row>
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="H135" s="48"/>
+    </row>
     <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
     <row r="137" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
     <row r="138" spans="1:11" ht="16" x14ac:dyDescent="0.25"/>
@@ -4448,6 +4487,7 @@
     <row r="148" ht="16" x14ac:dyDescent="0.25"/>
     <row r="149" ht="16" x14ac:dyDescent="0.25"/>
     <row r="150" ht="16" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="16" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:K1"/>

--- a/doc/1. [SE] SRS (& System testing).xlsx
+++ b/doc/1. [SE] SRS (& System testing).xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="9260"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="11490"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="SRS" sheetId="1" r:id="rId4"/>
@@ -19,230 +19,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="258">
-  <x:si>
-    <x:t>사용자가 임의의 게시글에 대하여 답하여 짧은 글을 생성하는 기능</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="260">
   <x:si>
     <x:t>시스템은 알림 전송 실패 시
  해당 알림을 재전송해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>시스템은 댓글 삭제가 완료되었다면, 즉시로 페이지를 새로고침에 화면에 표시해야 하며, 요청이 제대로 처리되지 않았다면, 오류 메시지를 표시하고 페이지를 새로고침 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 댓글 수정이 완료되었다면, 즉시로 페이지를 새로고침에 화면에 표시해야 하며, 요청이 제대로 처리되지 않았다면, 오류 메시지를 표시하고 페이지를 새로고침 해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Team members</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(프로젝트 제목 작성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.1.2,17.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(Student ID)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project title</x:t>
-  </x:si>
-  <x:si>
     <x:t>사용자는 이메일, 비밀번호 변경하려면 이메일 인증을 해야함(이메일 변경시에는 구, 신 이메일 모두 인증)</x:t>
   </x:si>
   <x:si>
     <x:t>기존에 작성된 게시글 중 좋아요와 싫어요의 개수가 특정 조건을 만족하는 게시글을 인기게시글로 분류한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김정우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박종선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김은강</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Low</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강승훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자가 기존 게시글을 수정하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자는 사용자 정보를 삭제할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 도구(다른 사용자 정보 관리)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(본 프로젝트에 대한 전반적인 요약문)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자는 사용자의 권환을 변경할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 작업 시 시스템 로그를 기록해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 새로운 게시글을 작성하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 회원 탈퇴를 요청할 수 있어야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 이메일 중복 여부를 확인 해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 결과
-(Test result)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발자가 관리자 계정을 임의로 생성한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력 후 게시글 목록을 화면에 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 성공시 메인 화면으로 이동해야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 목록은 시간 순으로 정열한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭 후 인기게시글을 화면에 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 알아야 하는 정보를 전달하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 후 메인 화면으로 이동해야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자는 사용자 정보를 수정할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 작성 시 작성일자 및 수정일자, 작성자 등이 자동 기록되어야 한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정페이지에서 기존 게시글 제목과 내용이 입력폼에 그대로 미리 채워져야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 삭제할 댓글이 존재하는 게시글 페이지로 이동해야 한다.</x:t>
+    <x:t>시스템은 CAPTCHA를 통해 사용자가 사람인지 확인해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 자신의 계정이나 작성글/댓글을 관리할 수 있는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 비밀번호 규칙에 따라 비밀번호의 유효성을 검사해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저장된 게시글 목록과 상세 내용을 사용자에게 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 계정의 존재 여부와 비밀번호의 일치 여부를 확인해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 이용약관, 개인정보 수집정책을 열람할 수 있어야 함</x:t>
   </x:si>
   <x:si>
     <x:t>주요 기능(관리자 도구, 알림 등)에 접근하기 쉬워야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>시스템은 계정의 존재 여부와 비밀번호의 일치 여부를 확인해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 이용약관, 개인정보 수집정책을 열람할 수 있어야 함</x:t>
-  </x:si>
-  <x:si>
     <x:t>시스템은 사용자가 로그아웃을 수행하면 즉시 세션을 무효화 해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저장된 게시글 목록과 상세 내용을 사용자에게 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 CAPTCHA를 통해 사용자가 사람인지 확인해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 비밀번호 규칙에 따라 비밀번호의 유효성을 검사해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 자신의 계정이나 작성글/댓글을 관리할 수 있는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 이메일, 비밀번호, 닉네임을 변경할 수 있어야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 로그인 성공시 사용자에게 세션 또는 토큰을 부여해야함</x:t>
   </x:si>
   <x:si>
     <x:t>우선순위
@@ -250,113 +60,46 @@
 (High, Medium, Low)</x:t>
   </x:si>
   <x:si>
+    <x:t>사용자는 이메일, 비밀번호, 닉네임을 변경할 수 있어야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 로그인 성공시 사용자에게 세션 또는 토큰을 부여해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 수정할 댓글이 존재하는 게시글 페이지로 이동해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 댓글 수정이 완료되었다면, 즉시로 페이지를 새로고침에 화면에 표시해야 하며, 요청이 제대로 처리되지 않았다면, 오류 메시지를 표시하고 페이지를 새로고침 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 댓글 삭제가 완료되었다면, 즉시로 페이지를 새로고침에 화면에 표시해야 하며, 요청이 제대로 처리되지 않았다면, 오류 메시지를 표시하고 페이지를 새로고침 해야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 전송한 정보가 잘전송되었다면, 페이지는 즉시로 새로고침되어 사용자가 생성한 댓글이 사용자의 이름, 생성 시간과 함께 게시글 아래에 표시되어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면 레이아웃, 버튼, 메뉴, 폰트, 색상, 아이콘 등의 디자인 일관성을 유지한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 텍스트 입력 후 댓글을 서버에 전송하기 위해 적절한 버튼을 클릭해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자가 작성한 게시글을 삭제하거나, 관리자가 특정 게시글을 삭제할 수 있는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 게시글 아래 입력 박스를 통해 적어도 1자 이상의 텍스트를 입력해야 한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>사용자는 댓글을 생성할 임의의 게시글 페이지로 이동해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>사용자는 수정할 댓글이 존재하는 게시글 페이지로 이동해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 댓글 수정 요청 이전에 입력된 내용과 현재 입력된 내용을 비교하여, 달라진 것이 있다면 시스템은 댓글의 생성시간을 업데이트 해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 전송한 정보가 잘전송되었다면, 페이지는 즉시로 새로고침되어 사용자가 생성한 댓글이 사용자의 이름, 생성 시간과 함께 게시글 아래에 표시되어야 한다.</x:t>
+    <x:t>사용자는 삭제할 댓글이 존재하는 게시글 페이지로 이동해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 임의의 게시글에 대하여 답하여 짧은 글을 생성하는 기능</x:t>
   </x:si>
   <x:si>
     <x:t>사용자가 수정 가능한 댓글은 실제 화면에 표시된 댓글이 아닌 댓글을 생성하기 위한 프롬프트로 한정되며, 적어도 1자 이상이어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Software Requirements Specification (SRS) (&amp; System testing)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 자신이 생성한 임의의 댓글 박스에 표시된 삭제용 버튼을 클릭하여 기존에 입력한 댓글을 삭제할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 회원탈퇴 요청을 받으면 계정을 즉시 비활성화 하고 일정기간 이상 로그인이 없으면 계정을 영구 삭제해야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 자신이 생성한 임의의 댓글 박스에 표시된 수정용 버튼을 클릭하여 기존에 입력한 댓글을 수정할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 댓글 수정 요청이 들어오면 로그인 정보를 기반으로 작성자가 맞는 경우에만 그 요청을 수락해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 댓글 삭제 요청이 들어오면 로그인 정보를 기반으로 작성자가 맞는 경우에만 그 요청을 수락해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목록 페이지에는 게시글 제목,작성자, 작성일, 좋아요 수 등을 확인한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 로그인 실패 후 재시도시 CAPTCHA를 통해 사람인지 확인해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 계정이 정지되었거나 이메일 인증이 완료되지 않았다면 활동을 제한해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 내용은 명확하게 표시되어야 하고,
- 사용자가 바로 이해할 수 있어야 한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 성공시 내 정보 관리 화면으로 이동하거나 메인 화면으로 이동해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력변수
-(Input variables to test the function)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 계정으로 로그인을 하면 사용자 정보 관리 기능을 사용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼, 입력 필드, 메뉴 등은 직관적이어야 하고, 터치 영역이 충분해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 사용자의 게시글 평가 기능이 발생하면 감지하고 알림을 전송해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 이력에는 로그인 시간, 기기(브라우저), IP주소 일부가 표시되어야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 제목, 내용, 글쓴이, 댓글 중 검색하고 싶은 분류를 선택한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 사용자의 댓글에 답글이 달리면
- 감지하고 알림을 전송해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 텍스트 입력 후 댓글을 서버에 전송하기 위해 적절한 버튼을 클릭해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 게시글 아래 입력 박스를 통해 적어도 1자 이상의 텍스트를 입력해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자가 작성한 게시글을 삭제하거나, 관리자가 특정 게시글을 삭제할 수 있는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면 레이아웃, 버튼, 메뉴, 폰트, 색상, 아이콘 등의 디자인 일관성을 유지한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 조회가 끝난 게시글에 싫어요를 클리하면 싫어요 수가 오른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭 후 원하는 사용자가 작성한 게시글과 댓글을 화면에 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 조회가 끝난 게시글에 좋아요를 클릭하면 좋아요 수가 오른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 요구사항 정의 (Requirements description)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성 후 사용자는 게시글 목록이나 게시글 상세 페이지로 자동 이동한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 로그인 정보를 기반으로 사용자가 입력한 댓글과 그렇지 않은 댓글을 구분하여 수정 가능 여부를 표시해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템은 로그인 정보를 기반으로 사용자가 입력한 댓글과 그렇지 않은 댓글을 구분하여 삭제 가능 여부를 표시해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예외 입력값 partitioning
-(Exceptional inputs partitioning)</x:t>
   </x:si>
   <x:si>
     <x:t>세부요구사항 설명
@@ -364,6 +107,13 @@
 (predicative summary of the function)</x:t>
   </x:si>
   <x:si>
+    <x:t>예외 입력값 partitioning
+(Exceptional inputs partitioning)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 게시글 제목을 클릭하면 상세 페이지로 이동하여 게시글 내용을 확인할 수 있다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>정상 입력값 partitioning
 (Normal inputs partitioning)</x:t>
   </x:si>
@@ -371,394 +121,601 @@
     <x:t>사용자는 내 정보관리에 진입하기 위해서는 비밀번호를 재입력 하고 CAPTCHA를 완료해야함</x:t>
   </x:si>
   <x:si>
-    <x:t>사용자가 게시글 제목을 클릭하면 상세 페이지로 이동하여 게시글 내용을 확인할 수 있다.</x:t>
+    <x:t>Software Requirements Specification (SRS) (&amp; System testing)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 자신이 생성한 임의의 댓글 박스에 표시된 삭제용 버튼을 클릭하여 기존에 입력한 댓글을 삭제할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 회원탈퇴 요청을 받으면 계정을 즉시 비활성화 하고 일정기간 이상 로그인이 없으면 계정을 영구 삭제해야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 댓글 삭제 요청이 들어오면 로그인 정보를 기반으로 작성자가 맞는 경우에만 그 요청을 수락해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 자신이 생성한 임의의 댓글 박스에 표시된 수정용 버튼을 클릭하여 기존에 입력한 댓글을 수정할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 댓글 수정 요청이 들어오면 로그인 정보를 기반으로 작성자가 맞는 경우에만 그 요청을 수락해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 로그인 정보를 기반으로 사용자가 입력한 댓글과 그렇지 않은 댓글을 구분하여 수정 가능 여부를 표시해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 로그인 정보를 기반으로 사용자가 입력한 댓글과 그렇지 않은 댓글을 구분하여 삭제 가능 여부를 표시해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 계정이 정지되었거나 이메일 인증이 완료되지 않았다면 활동을 제한해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 이력에는 로그인 시간, 기기(브라우저), IP주소 일부가 표시되어야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 성공시 내 정보 관리 화면으로 이동하거나 메인 화면으로 이동해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 계정으로 로그인을 하면 사용자 정보 관리 기능을 사용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 사용자의 게시글 평가 기능이 발생하면 감지하고 알림을 전송해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력변수
+(Input variables to test the function)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 내용은 명확하게 표시되어야 하고,
+ 사용자가 바로 이해할 수 있어야 한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 로그인 실패 후 재시도시 CAPTCHA를 통해 사람인지 확인해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 제목, 내용, 글쓴이, 댓글 중 검색하고 싶은 분류를 선택한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목록 페이지에는 게시글 제목,작성자, 작성일, 좋아요 수 등을 확인한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 사용자의 댓글에 답글이 달리면
+ 감지하고 알림을 전송해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼, 입력 필드, 메뉴 등은 직관적이어야 하고, 터치 영역이 충분해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 조회가 끝난 게시글에 좋아요를 클릭하면 좋아요 수가 오른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 요구사항 정의 (Requirements description)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 조회가 끝난 게시글에 싫어요를 클리하면 싫어요 수가 오른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클릭 후 원하는 사용자가 작성한 게시글과 댓글을 화면에 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성 후 사용자는 게시글 목록이나 게시글 상세 페이지로 자동 이동한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정페이지에서 기존 게시글 제목과 내용이 입력폼에 그대로 미리 채워져야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 작성 시 작성일자 및 수정일자, 작성자 등이 자동 기록되어야 한다</x:t>
   </x:si>
   <x:si>
     <x:t>사용자가 댓글을 서버에 전송하기 위한 버튼을 클릭 후 일정시간이 지나도록 적절한 텍스트 데이터가 서버에 도착하지 않았다면, 페이지는 새로고침되며, 오류 메시지를 띄워야 한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>사용자가 기존에 작성된 게시글을 검색하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 최근 로그인 이력을 조회할 수 있어야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회 시 게시글 조회수가 자동으로 증가한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입 후 이메일 인증을 해야 계정이 활성화됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 원하는 사용자의 닉네임을 클릭한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 게시글 목록에서 게시글을 조회하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제 후 게시글 목록 페이지로 리다이렉트한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 이메일, 비밀번호를 필수로 입력해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 기존에 생성한 댓글을 수정하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.1.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1.9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.1.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 평가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 정보 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(Name)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI/UX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.1.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.1.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요약
+(Summary of the function)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호는 단방향 암호화를 통해 암호화해 저장해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 회원가입을 통해 만든 계정으로 접속하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 이메일, 비밀번호, 닉네임을 필수로 입력 해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택 후 사용자는 검색하고 싶은 텍스트를 입력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 후에는 수정된 게시글 상세 페이지로 리다이렉트한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 수신 기록을 저장하여
+ 확인할 수 있어야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 가입시 이용약관, 개인정보 수집에 동의해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 본인이 작성한 글과 댓글을 조회할 수 있어야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(프로젝트 제목 작성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(Student ID)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Team members</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.1.2,17.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project description</x:t>
+  </x:si>
+  <x:si>
     <x:t>사용자가 새 계정을 생성하는 기능</x:t>
   </x:si>
   <x:si>
+    <x:t>사용자가 인기게시판을 클릭한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 계정으로 로그인을 한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 경험과 인터페이스 개선 기능</x:t>
+  </x:si>
+  <x:si>
     <x:t>다른 사용자의 정보를 관리하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 세션을 종료하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 경험과 인터페이스 개선 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 인기게시판을 클릭한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project description</x:t>
   </x:si>
   <x:si>
     <x:t>추적성
 (Traceability)</x:t>
   </x:si>
   <x:si>
-    <x:t>관리자 계정으로 로그인을 한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 이메일, 비밀번호, 닉네임을 필수로 입력 해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요약
-(Summary of the function)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호는 단방향 암호화를 통해 암호화해 저장해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택 후 사용자는 검색하고 싶은 텍스트를 입력한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 본인이 작성한 글과 댓글을 조회할 수 있어야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 후에는 수정된 게시글 상세 페이지로 리다이렉트한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 수신 기록을 저장하여
- 확인할 수 있어야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 회원가입을 통해 만든 계정으로 접속하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 가입시 이용약관, 개인정보 수집에 동의해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.1.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.1.9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>High</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.1.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 정보 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI/UX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 평가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(Name)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.1.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.1.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자는 로그인 정보 기반으로 자동 등록되어야한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 제목과 내용을 필수로 입력해야 한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 알림 설정으로 수신 여부를 선택한다</x:t>
+    <x:t>사용자가 세션을 종료하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강승훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박종선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김정우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김은강</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Low</x:t>
   </x:si>
   <x:si>
     <x:t>사용자가 원하는 사용자의 정보를 검색하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 기존에 작성된 게시글을 평가하는 기능</x:t>
   </x:si>
   <x:si>
     <x:t>사용자가 기존에 생성한 댓글을 삭제하는 기능</x:t>
@@ -768,43 +725,92 @@
 (Function name)</x:t>
   </x:si>
   <x:si>
-    <x:t>사용자가 게시글 목록에서 게시글을 조회하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제 후 게시글 목록 페이지로 리다이렉트한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입 후 이메일 인증을 해야 계정이 활성화됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회 시 게시글 조회수가 자동으로 증가한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 원하는 사용자의 닉네임을 클릭한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 기존에 생성한 댓글을 수정하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 최근 로그인 이력을 조회할 수 있어야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 이메일, 비밀번호를 필수로 입력해야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 기존에 작성된 게시글을 검색하는 기능</x:t>
+    <x:t>사용자가 기존에 작성된 게시글을 평가하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 알림 설정으로 수신 여부를 선택한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 댓글 수정 요청 이전에 입력된 내용과 현재 입력된 내용을 비교하여, 달라진 것이 있다면 시스템은 댓글의 생성시간을 업데이트 해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(본 프로젝트에 대한 전반적인 요약문)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 후 메인 화면으로 이동해야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자는 사용자의 권환을 변경할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 결과
+(Test result)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자는 사용자 정보를 수정할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클릭 후 인기게시글을 화면에 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템은 이메일 중복 여부를 확인 해야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 목록은 시간 순으로 정열한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 작업 시 시스템 로그를 기록해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 도구(다른 사용자 정보 관리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 회원 탈퇴를 요청할 수 있어야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발자가 관리자 계정을 임의로 생성한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력 후 게시글 목록을 화면에 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 알아야 하는 정보를 전달하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 새로운 게시글을 작성하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자는 사용자 정보를 삭제할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 성공시 메인 화면으로 이동해야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자가 기존 게시글을 수정하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.1.1, 8.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정완료시 수정 일자가 자동으로 업데이트되어야 한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제 권한은 작성자 본인 또는 관리자에게만 부여한다</x:t>
   </x:si>
   <x:si>
     <x:t>Medium</x:t>
   </x:si>
   <x:si>
-    <x:t>수정완료시 수정 일자가 자동으로 업데이트되어야 한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제 권한은 작성자 본인 또는 관리자에게만 부여한다</x:t>
-  </x:si>
-  <x:si>
     <x:t>5.1.1, 5.1.2, 5.1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.1.1, 12.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 제목과 내용을 필수로 입력해야 한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자는 로그인 정보 기반으로 자동 등록되어야한다</x:t>
   </x:si>
   <x:si>
     <x:t>게시글 수정은 작성자 본인만 가능하다</x:t>
@@ -2138,6 +2144,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2220,6 +2227,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2254,6 +2262,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2298,6 +2307,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2341,6 +2351,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2425,6 +2436,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2445,6 +2457,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2475,6 +2488,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3018,7 +3032,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3354,8 +3368,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:K135"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A54" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="F61" activeCellId="0" sqref="F61:F61"/>
+    <x:sheetView tabSelected="1" topLeftCell="A63" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="I75" activeCellId="0" sqref="I75:I75"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" customHeight="1"/>
@@ -3376,7 +3390,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <x:c r="A1" s="54" t="s">
-        <x:v>80</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B1" s="55"/>
       <x:c r="C1" s="55"/>
@@ -3402,10 +3416,10 @@
     </x:row>
     <x:row r="3" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <x:c r="A3" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B3" s="57" t="s">
-        <x:v>5</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C3" s="57"/>
       <x:c r="D3" s="57"/>
@@ -3417,10 +3431,10 @@
     </x:row>
     <x:row r="4" spans="1:9" s="2" customFormat="1" ht="115.5" customHeight="1">
       <x:c r="A4" s="13" t="s">
-        <x:v>120</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B4" s="57" t="s">
-        <x:v>46</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C4" s="57"/>
       <x:c r="D4" s="57"/>
@@ -3432,13 +3446,13 @@
     </x:row>
     <x:row r="5" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
       <x:c r="A5" s="13" t="s">
-        <x:v>4</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>216</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D5" s="7"/>
       <x:c r="E5" s="7"/>
@@ -3453,7 +3467,7 @@
         <x:v>22212017</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D6" s="7"/>
       <x:c r="E6" s="7"/>
@@ -3468,7 +3482,7 @@
         <x:v>21912130</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D7" s="7"/>
       <x:c r="E7" s="7"/>
@@ -3483,7 +3497,7 @@
         <x:v>22211996</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D8" s="7"/>
       <x:c r="E8" s="7"/>
@@ -3497,7 +3511,7 @@
         <x:v>22313549</x:v>
       </x:c>
       <x:c r="C9" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D9" s="4"/>
       <x:c r="E9" s="4"/>
@@ -3539,7 +3553,7 @@
     </x:row>
     <x:row r="13" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A13" s="58" t="s">
-        <x:v>105</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B13" s="58"/>
       <x:c r="C13" s="58"/>
@@ -3550,35 +3564,35 @@
     </x:row>
     <x:row r="14" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1">
       <x:c r="A14" s="59" t="s">
-        <x:v>32</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B14" s="62" t="s">
-        <x:v>243</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C14" s="62" t="s">
-        <x:v>124</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D14" s="63" t="s">
-        <x:v>110</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E14" s="62" t="s">
-        <x:v>91</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F14" s="68" t="s">
-        <x:v>111</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G14" s="71" t="s">
-        <x:v>109</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H14" s="3"/>
       <x:c r="I14" s="62" t="s">
-        <x:v>121</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J14" s="74" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K14" s="62" t="s">
-        <x:v>52</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:11" s="15" customFormat="1" ht="13.199999999999999">
@@ -3609,10 +3623,10 @@
     </x:row>
     <x:row r="17" spans="1:11" s="15" customFormat="1" ht="14.5">
       <x:c r="A17" s="17" t="s">
-        <x:v>19</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B17" s="17" t="s">
-        <x:v>225</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C17" s="17"/>
       <x:c r="D17" s="17"/>
@@ -3626,11 +3640,11 @@
     </x:row>
     <x:row r="18" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A18" s="17" t="s">
-        <x:v>28</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B18" s="17"/>
       <x:c r="C18" s="17" t="s">
-        <x:v>115</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D18" s="17"/>
       <x:c r="E18" s="17"/>
@@ -3643,12 +3657,12 @@
     </x:row>
     <x:row r="19" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A19" s="17" t="s">
-        <x:v>152</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B19" s="17"/>
       <x:c r="C19" s="17"/>
       <x:c r="D19" s="17" t="s">
-        <x:v>123</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E19" s="17"/>
       <x:c r="F19" s="16"/>
@@ -3660,12 +3674,12 @@
     </x:row>
     <x:row r="20" spans="1:11" s="15" customFormat="1" ht="14.5">
       <x:c r="A20" s="17" t="s">
-        <x:v>154</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B20" s="17"/>
       <x:c r="C20" s="17"/>
       <x:c r="D20" s="17" t="s">
-        <x:v>51</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E20" s="17"/>
       <x:c r="F20" s="16"/>
@@ -3677,12 +3691,12 @@
     </x:row>
     <x:row r="21" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A21" s="17" t="s">
-        <x:v>151</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B21" s="17"/>
       <x:c r="C21" s="17"/>
       <x:c r="D21" s="17" t="s">
-        <x:v>70</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E21" s="17"/>
       <x:c r="F21" s="16"/>
@@ -3694,12 +3708,12 @@
     </x:row>
     <x:row r="22" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A22" s="17" t="s">
-        <x:v>192</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B22" s="17"/>
       <x:c r="C22" s="17"/>
       <x:c r="D22" s="17" t="s">
-        <x:v>131</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E22" s="17"/>
       <x:c r="F22" s="16"/>
@@ -3711,12 +3725,12 @@
     </x:row>
     <x:row r="23" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A23" s="17" t="s">
-        <x:v>204</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B23" s="17"/>
       <x:c r="C23" s="17"/>
       <x:c r="D23" s="17" t="s">
-        <x:v>69</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E23" s="17"/>
       <x:c r="F23" s="16"/>
@@ -3728,12 +3742,12 @@
     </x:row>
     <x:row r="24" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A24" s="17" t="s">
-        <x:v>213</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B24" s="17"/>
       <x:c r="C24" s="17"/>
       <x:c r="D24" s="17" t="s">
-        <x:v>90</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E24" s="17"/>
       <x:c r="F24" s="16"/>
@@ -3745,12 +3759,12 @@
     </x:row>
     <x:row r="25" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A25" s="17" t="s">
-        <x:v>220</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B25" s="17"/>
       <x:c r="C25" s="17"/>
       <x:c r="D25" s="17" t="s">
-        <x:v>125</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E25" s="17"/>
       <x:c r="F25" s="16"/>
@@ -3762,12 +3776,12 @@
     </x:row>
     <x:row r="26" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A26" s="17" t="s">
-        <x:v>136</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B26" s="17"/>
       <x:c r="C26" s="17"/>
       <x:c r="D26" s="17" t="s">
-        <x:v>246</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E26" s="17"/>
       <x:c r="F26" s="16"/>
@@ -3779,10 +3793,10 @@
     </x:row>
     <x:row r="27" spans="1:11" s="15" customFormat="1" ht="14.5">
       <x:c r="A27" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B27" s="17" t="s">
-        <x:v>39</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C27" s="17"/>
       <x:c r="D27" s="17"/>
@@ -3796,11 +3810,11 @@
     </x:row>
     <x:row r="28" spans="1:11" s="15" customFormat="1" ht="39.899999999999999">
       <x:c r="A28" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B28" s="17"/>
       <x:c r="C28" s="17" t="s">
-        <x:v>130</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D28" s="17"/>
       <x:c r="E28" s="17"/>
@@ -3813,12 +3827,12 @@
     </x:row>
     <x:row r="29" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A29" s="17" t="s">
-        <x:v>196</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B29" s="17"/>
       <x:c r="C29" s="17"/>
       <x:c r="D29" s="17" t="s">
-        <x:v>251</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E29" s="17"/>
       <x:c r="F29" s="16"/>
@@ -3830,12 +3844,12 @@
     </x:row>
     <x:row r="30" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A30" s="17" t="s">
-        <x:v>221</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B30" s="17"/>
       <x:c r="C30" s="17"/>
       <x:c r="D30" s="17" t="s">
-        <x:v>65</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E30" s="17"/>
       <x:c r="F30" s="16"/>
@@ -3847,12 +3861,12 @@
     </x:row>
     <x:row r="31" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A31" s="17" t="s">
-        <x:v>182</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B31" s="17"/>
       <x:c r="C31" s="17"/>
       <x:c r="D31" s="17" t="s">
-        <x:v>88</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E31" s="17"/>
       <x:c r="F31" s="16"/>
@@ -3864,12 +3878,12 @@
     </x:row>
     <x:row r="32" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A32" s="17" t="s">
-        <x:v>142</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B32" s="17"/>
       <x:c r="C32" s="17"/>
       <x:c r="D32" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E32" s="17"/>
       <x:c r="F32" s="16"/>
@@ -3881,12 +3895,12 @@
     </x:row>
     <x:row r="33" spans="1:11" s="15" customFormat="1" ht="14.5">
       <x:c r="A33" s="17" t="s">
-        <x:v>134</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B33" s="17"/>
       <x:c r="C33" s="17"/>
       <x:c r="D33" s="17" t="s">
-        <x:v>55</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E33" s="17"/>
       <x:c r="F33" s="16"/>
@@ -3898,12 +3912,12 @@
     </x:row>
     <x:row r="34" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A34" s="17" t="s">
-        <x:v>149</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B34" s="17"/>
       <x:c r="C34" s="17"/>
       <x:c r="D34" s="17" t="s">
-        <x:v>73</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="17"/>
       <x:c r="F34" s="16"/>
@@ -3915,10 +3929,10 @@
     </x:row>
     <x:row r="35" spans="1:11" s="15" customFormat="1" ht="14.5">
       <x:c r="A35" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B35" s="17" t="s">
-        <x:v>203</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C35" s="17"/>
       <x:c r="D35" s="17"/>
@@ -3932,11 +3946,11 @@
     </x:row>
     <x:row r="36" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A36" s="17" t="s">
-        <x:v>31</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B36" s="17"/>
       <x:c r="C36" s="17" t="s">
-        <x:v>117</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D36" s="17"/>
       <x:c r="E36" s="17"/>
@@ -3949,12 +3963,12 @@
     </x:row>
     <x:row r="37" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A37" s="17" t="s">
-        <x:v>140</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B37" s="17"/>
       <x:c r="C37" s="17"/>
       <x:c r="D37" s="17" t="s">
-        <x:v>67</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E37" s="17"/>
       <x:c r="F37" s="16"/>
@@ -3966,12 +3980,12 @@
     </x:row>
     <x:row r="38" spans="1:11" s="15" customFormat="1" ht="14.5">
       <x:c r="A38" s="17" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B38" s="17"/>
       <x:c r="C38" s="17"/>
       <x:c r="D38" s="17" t="s">
-        <x:v>59</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E38" s="17"/>
       <x:c r="F38" s="16"/>
@@ -3986,7 +4000,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B39" s="17" t="s">
-        <x:v>191</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C39" s="17"/>
       <x:c r="D39" s="17"/>
@@ -4000,11 +4014,11 @@
     </x:row>
     <x:row r="40" spans="1:11" s="15" customFormat="1" ht="53.100000000000001">
       <x:c r="A40" s="17" t="s">
-        <x:v>27</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B40" s="17"/>
       <x:c r="C40" s="17" t="s">
-        <x:v>71</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D40" s="17"/>
       <x:c r="E40" s="17"/>
@@ -4017,12 +4031,12 @@
     </x:row>
     <x:row r="41" spans="1:11" s="15" customFormat="1" ht="39.899999999999999">
       <x:c r="A41" s="17" t="s">
-        <x:v>145</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B41" s="17"/>
       <x:c r="C41" s="17"/>
       <x:c r="D41" s="17" t="s">
-        <x:v>112</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E41" s="17"/>
       <x:c r="F41" s="16"/>
@@ -4034,12 +4048,12 @@
     </x:row>
     <x:row r="42" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A42" s="17" t="s">
-        <x:v>146</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B42" s="17"/>
       <x:c r="C42" s="17"/>
       <x:c r="D42" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E42" s="17"/>
       <x:c r="F42" s="16"/>
@@ -4051,12 +4065,12 @@
     </x:row>
     <x:row r="43" spans="1:11" s="15" customFormat="1" ht="39.899999999999999">
       <x:c r="A43" s="17" t="s">
-        <x:v>143</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B43" s="17"/>
       <x:c r="C43" s="17"/>
       <x:c r="D43" s="17" t="s">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E43" s="17"/>
       <x:c r="F43" s="16"/>
@@ -4068,12 +4082,12 @@
     </x:row>
     <x:row r="44" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A44" s="17" t="s">
-        <x:v>132</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B44" s="17"/>
       <x:c r="C44" s="17"/>
       <x:c r="D44" s="17" t="s">
-        <x:v>66</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E44" s="17"/>
       <x:c r="F44" s="16"/>
@@ -4085,12 +4099,12 @@
     </x:row>
     <x:row r="45" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A45" s="17" t="s">
-        <x:v>135</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B45" s="17"/>
       <x:c r="C45" s="17"/>
       <x:c r="D45" s="17" t="s">
-        <x:v>250</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E45" s="17"/>
       <x:c r="F45" s="16"/>
@@ -4102,12 +4116,12 @@
     </x:row>
     <x:row r="46" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A46" s="17" t="s">
-        <x:v>144</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B46" s="17"/>
       <x:c r="C46" s="17"/>
       <x:c r="D46" s="17" t="s">
-        <x:v>95</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E46" s="17"/>
       <x:c r="F46" s="16"/>
@@ -4119,12 +4133,12 @@
     </x:row>
     <x:row r="47" spans="1:11" s="15" customFormat="1" ht="26.75">
       <x:c r="A47" s="17" t="s">
-        <x:v>138</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B47" s="17"/>
       <x:c r="C47" s="17"/>
       <x:c r="D47" s="17" t="s">
-        <x:v>127</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E47" s="17"/>
       <x:c r="F47" s="16"/>
@@ -4136,12 +4150,12 @@
     </x:row>
     <x:row r="48" spans="1:11" s="15" customFormat="1" ht="14.5">
       <x:c r="A48" s="17" t="s">
-        <x:v>147</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B48" s="17"/>
       <x:c r="C48" s="17"/>
       <x:c r="D48" s="17" t="s">
-        <x:v>50</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E48" s="17"/>
       <x:c r="F48" s="16"/>
@@ -4153,14 +4167,14 @@
     </x:row>
     <x:row r="49" spans="1:11" s="15" customFormat="1" ht="39.899999999999999">
       <x:c r="A49" s="17" t="s">
-        <x:v>153</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B49" s="17"/>
       <x:c r="C49" s="17" t="s">
-        <x:v>40</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D49" s="17" t="s">
-        <x:v>82</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E49" s="17"/>
       <x:c r="F49" s="16"/>
@@ -4172,10 +4186,10 @@
     </x:row>
     <x:row r="50" spans="1:11" s="15" customFormat="1" ht="14.15">
       <x:c r="A50" s="17" t="s">
-        <x:v>20</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B50" s="17" t="s">
-        <x:v>223</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C50" s="17"/>
       <x:c r="D50" s="17"/>
@@ -4189,11 +4203,11 @@
     </x:row>
     <x:row r="51" spans="1:11" ht="39.899999999999999">
       <x:c r="A51" s="17" t="s">
-        <x:v>14</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B51" s="17"/>
       <x:c r="C51" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D51" s="17"/>
       <x:c r="E51" s="17"/>
@@ -4206,12 +4220,12 @@
     </x:row>
     <x:row r="52" spans="1:11" ht="26.75">
       <x:c r="A52" s="17" t="s">
-        <x:v>230</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B52" s="17"/>
       <x:c r="C52" s="17"/>
       <x:c r="D52" s="17" t="s">
-        <x:v>238</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E52" s="17"/>
       <x:c r="F52" s="16"/>
@@ -4219,18 +4233,18 @@
       <x:c r="H52" s="20"/>
       <x:c r="I52" s="17"/>
       <x:c r="J52" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K52" s="17"/>
     </x:row>
     <x:row r="53" spans="1:11" ht="26.75">
       <x:c r="A53" s="17" t="s">
-        <x:v>235</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B53" s="17"/>
       <x:c r="C53" s="17"/>
       <x:c r="D53" s="17" t="s">
-        <x:v>237</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E53" s="17"/>
       <x:c r="F53" s="16"/>
@@ -4238,18 +4252,18 @@
       <x:c r="H53" s="20"/>
       <x:c r="I53" s="17"/>
       <x:c r="J53" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K53" s="17"/>
     </x:row>
     <x:row r="54" spans="1:11" ht="26.75">
       <x:c r="A54" s="17" t="s">
-        <x:v>229</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B54" s="17"/>
       <x:c r="C54" s="17"/>
       <x:c r="D54" s="17" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E54" s="17"/>
       <x:c r="F54" s="16"/>
@@ -4257,37 +4271,37 @@
       <x:c r="H54" s="20"/>
       <x:c r="I54" s="17"/>
       <x:c r="J54" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K54" s="17"/>
     </x:row>
     <x:row r="55" spans="1:11" ht="26.75">
       <x:c r="A55" s="17" t="s">
-        <x:v>232</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B55" s="17"/>
       <x:c r="C55" s="17"/>
       <x:c r="D55" s="17" t="s">
-        <x:v>106</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E55" s="17"/>
       <x:c r="F55" s="16"/>
       <x:c r="G55" s="17"/>
       <x:c r="H55" s="20"/>
       <x:c r="I55" s="17" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="J55" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="K55" s="17"/>
     </x:row>
     <x:row r="56" spans="1:11" ht="13.550000000000001">
       <x:c r="A56" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B56" s="17" t="s">
-        <x:v>184</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C56" s="17"/>
       <x:c r="D56" s="17"/>
@@ -4301,11 +4315,11 @@
     </x:row>
     <x:row r="57" spans="1:11" ht="26.75">
       <x:c r="A57" s="17" t="s">
-        <x:v>15</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B57" s="17"/>
       <x:c r="C57" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D57" s="17"/>
       <x:c r="E57" s="17"/>
@@ -4318,12 +4332,12 @@
     </x:row>
     <x:row r="58" spans="1:11" ht="13.550000000000001">
       <x:c r="A58" s="17" t="s">
-        <x:v>194</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B58" s="17"/>
       <x:c r="C58" s="17"/>
       <x:c r="D58" s="17" t="s">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E58" s="17"/>
       <x:c r="F58" s="16"/>
@@ -4331,18 +4345,18 @@
       <x:c r="H58" s="20"/>
       <x:c r="I58" s="17"/>
       <x:c r="J58" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K58" s="17"/>
     </x:row>
     <x:row r="59" spans="1:11" ht="26.75">
       <x:c r="A59" s="17" t="s">
-        <x:v>226</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B59" s="17"/>
       <x:c r="C59" s="17"/>
       <x:c r="D59" s="17" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E59" s="17"/>
       <x:c r="F59" s="16"/>
@@ -4350,18 +4364,18 @@
       <x:c r="H59" s="20"/>
       <x:c r="I59" s="17"/>
       <x:c r="J59" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="K59" s="17"/>
     </x:row>
     <x:row r="60" spans="1:11" ht="26.75">
       <x:c r="A60" s="17" t="s">
-        <x:v>218</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B60" s="17"/>
       <x:c r="C60" s="17"/>
       <x:c r="D60" s="17" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E60" s="17"/>
       <x:c r="F60" s="16"/>
@@ -4369,37 +4383,37 @@
       <x:c r="H60" s="20"/>
       <x:c r="I60" s="17"/>
       <x:c r="J60" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K60" s="17"/>
     </x:row>
     <x:row r="61" spans="1:11" ht="26.75">
       <x:c r="A61" s="17" t="s">
-        <x:v>233</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B61" s="17"/>
       <x:c r="C61" s="17"/>
       <x:c r="D61" s="17" t="s">
-        <x:v>128</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E61" s="17"/>
       <x:c r="F61" s="16"/>
       <x:c r="G61" s="17"/>
       <x:c r="H61" s="20"/>
       <x:c r="I61" s="17" t="s">
-        <x:v>218</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J61" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="K61" s="17"/>
     </x:row>
     <x:row r="62" spans="1:11" ht="13.550000000000001">
       <x:c r="A62" s="17" t="s">
-        <x:v>41</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B62" s="17" t="s">
-        <x:v>217</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C62" s="17"/>
       <x:c r="D62" s="17"/>
@@ -4413,11 +4427,11 @@
     </x:row>
     <x:row r="63" spans="1:11" ht="66.25">
       <x:c r="A63" s="17" t="s">
-        <x:v>29</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B63" s="17"/>
       <x:c r="C63" s="17" t="s">
-        <x:v>100</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D63" s="17"/>
       <x:c r="E63" s="17"/>
@@ -4430,12 +4444,12 @@
     </x:row>
     <x:row r="64" spans="1:11" ht="26.75">
       <x:c r="A64" s="17" t="s">
-        <x:v>195</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B64" s="17"/>
       <x:c r="C64" s="17"/>
       <x:c r="D64" s="17" t="s">
-        <x:v>255</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E64" s="17"/>
       <x:c r="F64" s="16"/>
@@ -4443,18 +4457,18 @@
       <x:c r="H64" s="20"/>
       <x:c r="I64" s="17"/>
       <x:c r="J64" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K64" s="17"/>
     </x:row>
     <x:row r="65" spans="1:11" ht="26.75">
       <x:c r="A65" s="17" t="s">
-        <x:v>219</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B65" s="17"/>
       <x:c r="C65" s="17"/>
       <x:c r="D65" s="17" t="s">
-        <x:v>245</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E65" s="17"/>
       <x:c r="F65" s="16"/>
@@ -4462,7 +4476,7 @@
       <x:c r="H65" s="20"/>
       <x:c r="I65" s="17"/>
       <x:c r="J65" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="K65" s="17"/>
     </x:row>
@@ -4471,7 +4485,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B66" s="31" t="s">
-        <x:v>177</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C66" s="31"/>
       <x:c r="D66" s="31"/>
@@ -4488,7 +4502,7 @@
       </x:c>
       <x:c r="B67" s="31"/>
       <x:c r="C67" s="31" t="s">
-        <x:v>68</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D67" s="31"/>
       <x:c r="E67" s="31"/>
@@ -4500,30 +4514,30 @@
     </x:row>
     <x:row r="68" spans="1:11" s="5" customFormat="1" customHeight="1">
       <x:c r="A68" s="31" t="s">
-        <x:v>173</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B68" s="33"/>
       <x:c r="C68" s="31"/>
       <x:c r="D68" s="33" t="s">
-        <x:v>56</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E68" s="31"/>
       <x:c r="F68" s="33"/>
       <x:c r="G68" s="31"/>
       <x:c r="I68" s="24"/>
       <x:c r="J68" s="25" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="K68" s="33"/>
     </x:row>
     <x:row r="69" spans="1:11" ht="26.75">
       <x:c r="A69" s="17" t="s">
-        <x:v>164</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B69" s="43"/>
       <x:c r="C69" s="17"/>
       <x:c r="D69" s="17" t="s">
-        <x:v>86</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E69" s="17"/>
       <x:c r="F69" s="16"/>
@@ -4531,16 +4545,16 @@
       <x:c r="H69" s="20"/>
       <x:c r="I69" s="17"/>
       <x:c r="J69" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K69" s="17"/>
     </x:row>
     <x:row r="70" spans="1:11" ht="13.550000000000001">
       <x:c r="A70" s="17" t="s">
-        <x:v>36</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B70" s="34" t="s">
-        <x:v>150</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C70" s="17"/>
       <x:c r="D70" s="17"/>
@@ -4554,11 +4568,11 @@
     </x:row>
     <x:row r="71" spans="1:11" ht="45" customHeight="1">
       <x:c r="A71" s="17" t="s">
-        <x:v>21</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B71" s="43"/>
       <x:c r="C71" s="17" t="s">
-        <x:v>244</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D71" s="17"/>
       <x:c r="E71" s="17"/>
@@ -4571,33 +4585,33 @@
     </x:row>
     <x:row r="72" spans="1:11" ht="41.5" customHeight="1">
       <x:c r="A72" s="17" t="s">
-        <x:v>211</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B72" s="17"/>
       <x:c r="C72" s="17"/>
       <x:c r="D72" s="17" t="s">
-        <x:v>113</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E72" s="17"/>
       <x:c r="F72" s="17"/>
       <x:c r="G72" s="17"/>
       <x:c r="H72" s="20"/>
       <x:c r="I72" s="17" t="s">
-        <x:v>210</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="J72" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K72" s="17"/>
     </x:row>
     <x:row r="73" spans="1:11" ht="26.75">
       <x:c r="A73" s="34" t="s">
-        <x:v>210</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B73" s="34"/>
       <x:c r="C73" s="34"/>
       <x:c r="D73" s="34" t="s">
-        <x:v>247</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E73" s="34"/>
       <x:c r="F73" s="34"/>
@@ -4605,16 +4619,16 @@
       <x:c r="H73" s="20"/>
       <x:c r="I73" s="27"/>
       <x:c r="J73" s="34" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="K73" s="28"/>
     </x:row>
     <x:row r="74" spans="1:11" s="5" customFormat="1" ht="13.550000000000001">
       <x:c r="A74" s="34" t="s">
-        <x:v>34</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B74" s="34" t="s">
-        <x:v>209</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C74" s="34"/>
       <x:c r="D74" s="34"/>
@@ -4632,7 +4646,7 @@
       </x:c>
       <x:c r="B75" s="31"/>
       <x:c r="C75" s="31" t="s">
-        <x:v>252</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D75" s="31"/>
       <x:c r="E75" s="31"/>
@@ -4644,50 +4658,58 @@
     </x:row>
     <x:row r="76" spans="1:11" s="5" customFormat="1" ht="26.75">
       <x:c r="A76" s="31" t="s">
-        <x:v>183</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B76" s="31"/>
       <x:c r="C76" s="31"/>
       <x:c r="D76" s="31" t="s">
-        <x:v>96</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E76" s="31"/>
       <x:c r="F76" s="31"/>
       <x:c r="G76" s="31"/>
       <x:c r="I76" s="36"/>
-      <x:c r="J76" s="31"/>
+      <x:c r="J76" s="31" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="K76" s="32"/>
     </x:row>
     <x:row r="77" spans="1:11" s="5" customFormat="1" ht="26.75">
       <x:c r="A77" s="31" t="s">
-        <x:v>181</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B77" s="31"/>
       <x:c r="C77" s="31"/>
       <x:c r="D77" s="31" t="s">
-        <x:v>126</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E77" s="31"/>
       <x:c r="F77" s="31"/>
       <x:c r="G77" s="31"/>
       <x:c r="I77" s="36"/>
-      <x:c r="J77" s="31"/>
+      <x:c r="J77" s="31" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="K77" s="32"/>
     </x:row>
     <x:row r="78" spans="1:11" s="5" customFormat="1" ht="13.550000000000001">
       <x:c r="A78" s="31" t="s">
-        <x:v>208</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B78" s="31"/>
       <x:c r="C78" s="31"/>
       <x:c r="D78" s="31" t="s">
-        <x:v>54</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E78" s="31"/>
       <x:c r="F78" s="31"/>
       <x:c r="G78" s="31"/>
-      <x:c r="I78" s="36"/>
-      <x:c r="J78" s="31"/>
+      <x:c r="I78" s="36" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="J78" s="31" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="K78" s="32"/>
     </x:row>
     <x:row r="79" spans="1:11" s="5" customFormat="1" ht="13.949999999999999">
@@ -4695,7 +4717,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B79" s="33" t="s">
-        <x:v>155</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C79" s="33"/>
       <x:c r="D79" s="33"/>
@@ -4712,7 +4734,7 @@
       </x:c>
       <x:c r="B80" s="24"/>
       <x:c r="C80" s="24" t="s">
-        <x:v>240</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D80" s="24"/>
       <x:c r="E80" s="24"/>
@@ -4724,42 +4746,46 @@
     </x:row>
     <x:row r="81" spans="1:11" s="5" customFormat="1" ht="26.75">
       <x:c r="A81" s="24" t="s">
-        <x:v>167</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B81" s="24"/>
       <x:c r="C81" s="24"/>
       <x:c r="D81" s="24" t="s">
-        <x:v>248</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E81" s="24"/>
       <x:c r="F81" s="24"/>
       <x:c r="G81" s="24"/>
       <x:c r="I81" s="41"/>
-      <x:c r="J81" s="33"/>
+      <x:c r="J81" s="33" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="K81" s="42"/>
     </x:row>
     <x:row r="82" spans="1:11" s="5" customFormat="1" ht="26.75">
       <x:c r="A82" s="24" t="s">
-        <x:v>190</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B82" s="24"/>
       <x:c r="C82" s="24"/>
       <x:c r="D82" s="24" t="s">
-        <x:v>103</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E82" s="24"/>
       <x:c r="F82" s="24"/>
       <x:c r="G82" s="24"/>
       <x:c r="I82" s="40"/>
-      <x:c r="J82" s="24"/>
+      <x:c r="J82" s="24" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="K82" s="26"/>
     </x:row>
     <x:row r="83" spans="1:11" ht="13.550000000000001">
       <x:c r="A83" s="38" t="s">
-        <x:v>37</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B83" s="38" t="s">
-        <x:v>205</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C83" s="38"/>
       <x:c r="D83" s="38"/>
@@ -4777,7 +4803,7 @@
       </x:c>
       <x:c r="B84" s="24"/>
       <x:c r="C84" s="24" t="s">
-        <x:v>241</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D84" s="24"/>
       <x:c r="E84" s="35"/>
@@ -4789,90 +4815,108 @@
     </x:row>
     <x:row r="85" spans="1:11" ht="26.75">
       <x:c r="A85" s="24" t="s">
-        <x:v>163</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B85" s="24"/>
       <x:c r="C85" s="24"/>
       <x:c r="D85" s="24" t="s">
-        <x:v>104</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E85" s="35"/>
       <x:c r="F85" s="35"/>
       <x:c r="G85" s="35"/>
-      <x:c r="I85" s="29"/>
-      <x:c r="J85" s="35"/>
+      <x:c r="I85" s="40" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="J85" s="24" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="K85" s="30"/>
     </x:row>
     <x:row r="86" spans="1:11" ht="26.75">
       <x:c r="A86" s="24" t="s">
-        <x:v>185</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B86" s="24"/>
       <x:c r="C86" s="24"/>
       <x:c r="D86" s="24" t="s">
-        <x:v>102</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E86" s="35"/>
       <x:c r="F86" s="35"/>
       <x:c r="G86" s="35"/>
-      <x:c r="I86" s="29"/>
-      <x:c r="J86" s="35"/>
+      <x:c r="I86" s="40" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="J86" s="24" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="K86" s="30"/>
     </x:row>
     <x:row r="87" spans="1:11" ht="39.899999999999999">
       <x:c r="A87" s="24" t="s">
-        <x:v>165</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B87" s="24"/>
       <x:c r="C87" s="24"/>
       <x:c r="D87" s="24" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E87" s="35"/>
       <x:c r="F87" s="35"/>
       <x:c r="G87" s="35"/>
-      <x:c r="I87" s="29"/>
-      <x:c r="J87" s="35"/>
+      <x:c r="I87" s="40" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="J87" s="24" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="K87" s="30"/>
     </x:row>
     <x:row r="88" spans="1:11" ht="13.550000000000001">
       <x:c r="A88" s="24" t="s">
-        <x:v>156</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B88" s="24"/>
       <x:c r="C88" s="24"/>
       <x:c r="D88" s="24" t="s">
-        <x:v>119</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E88" s="35"/>
       <x:c r="F88" s="35"/>
       <x:c r="G88" s="35"/>
-      <x:c r="I88" s="29"/>
-      <x:c r="J88" s="35"/>
+      <x:c r="I88" s="40"/>
+      <x:c r="J88" s="24" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="K88" s="30"/>
     </x:row>
     <x:row r="89" spans="1:11" ht="13.550000000000001">
       <x:c r="A89" s="24" t="s">
-        <x:v>166</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B89" s="24"/>
       <x:c r="C89" s="24"/>
       <x:c r="D89" s="24" t="s">
-        <x:v>57</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E89" s="35"/>
       <x:c r="F89" s="35"/>
       <x:c r="G89" s="35"/>
-      <x:c r="I89" s="29"/>
-      <x:c r="J89" s="35"/>
+      <x:c r="I89" s="40" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="J89" s="24" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="K89" s="30"/>
     </x:row>
     <x:row r="90" spans="1:11" ht="13.550000000000001">
       <x:c r="A90" s="44" t="s">
-        <x:v>33</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B90" s="44" t="s">
-        <x:v>186</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C90" s="44"/>
       <x:c r="D90" s="44"/>
@@ -4886,11 +4930,11 @@
     </x:row>
     <x:row r="91" spans="1:11" ht="53.450000000000003">
       <x:c r="A91" s="21" t="s">
-        <x:v>207</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B91" s="21"/>
       <x:c r="C91" s="21" t="s">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D91" s="21"/>
       <x:c r="E91" s="21"/>
@@ -4903,12 +4947,12 @@
     </x:row>
     <x:row r="92" spans="1:11" ht="26.75">
       <x:c r="A92" s="17" t="s">
-        <x:v>168</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B92" s="17"/>
       <x:c r="C92" s="17"/>
       <x:c r="D92" s="17" t="s">
-        <x:v>75</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E92" s="17"/>
       <x:c r="F92" s="17"/>
@@ -4920,12 +4964,12 @@
     </x:row>
     <x:row r="93" spans="1:11" ht="26.75">
       <x:c r="A93" s="17" t="s">
-        <x:v>158</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B93" s="17"/>
       <x:c r="C93" s="17"/>
       <x:c r="D93" s="17" t="s">
-        <x:v>99</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E93" s="17"/>
       <x:c r="F93" s="17"/>
@@ -4937,12 +4981,12 @@
     </x:row>
     <x:row r="94" spans="1:11" ht="26.75">
       <x:c r="A94" s="17" t="s">
-        <x:v>199</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B94" s="17"/>
       <x:c r="C94" s="17"/>
       <x:c r="D94" s="17" t="s">
-        <x:v>98</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E94" s="17"/>
       <x:c r="F94" s="17"/>
@@ -4954,12 +4998,12 @@
     </x:row>
     <x:row r="95" spans="1:11" ht="53.100000000000001">
       <x:c r="A95" s="17" t="s">
-        <x:v>162</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B95" s="17"/>
       <x:c r="C95" s="17"/>
       <x:c r="D95" s="17" t="s">
-        <x:v>78</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E95" s="17"/>
       <x:c r="F95" s="17"/>
@@ -4971,12 +5015,12 @@
     </x:row>
     <x:row r="96" spans="1:11" ht="66.25">
       <x:c r="A96" s="17" t="s">
-        <x:v>178</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B96" s="17"/>
       <x:c r="C96" s="17"/>
       <x:c r="D96" s="17" t="s">
-        <x:v>114</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E96" s="17"/>
       <x:c r="F96" s="17"/>
@@ -4988,10 +5032,10 @@
     </x:row>
     <x:row r="97" spans="1:11" ht="13.550000000000001">
       <x:c r="A97" s="17" t="s">
-        <x:v>22</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B97" s="17" t="s">
-        <x:v>198</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C97" s="17"/>
       <x:c r="D97" s="17"/>
@@ -5005,11 +5049,11 @@
     </x:row>
     <x:row r="98" spans="1:11" ht="39.899999999999999">
       <x:c r="A98" s="17" t="s">
-        <x:v>187</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B98" s="17"/>
       <x:c r="C98" s="17" t="s">
-        <x:v>249</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D98" s="17"/>
       <x:c r="E98" s="17"/>
@@ -5022,12 +5066,12 @@
     </x:row>
     <x:row r="99" spans="1:11" ht="26.75">
       <x:c r="A99" s="17" t="s">
-        <x:v>172</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B99" s="17"/>
       <x:c r="C99" s="17"/>
       <x:c r="D99" s="17" t="s">
-        <x:v>76</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E99" s="17"/>
       <x:c r="F99" s="17"/>
@@ -5039,12 +5083,12 @@
     </x:row>
     <x:row r="100" spans="1:11" ht="39.899999999999999">
       <x:c r="A100" s="17" t="s">
-        <x:v>193</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B100" s="17"/>
       <x:c r="C100" s="17"/>
       <x:c r="D100" s="17" t="s">
-        <x:v>107</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E100" s="17"/>
       <x:c r="F100" s="17"/>
@@ -5056,12 +5100,12 @@
     </x:row>
     <x:row r="101" spans="1:11" ht="39.899999999999999">
       <x:c r="A101" s="17" t="s">
-        <x:v>169</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B101" s="17"/>
       <x:c r="C101" s="17"/>
       <x:c r="D101" s="17" t="s">
-        <x:v>83</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E101" s="17"/>
       <x:c r="F101" s="17"/>
@@ -5073,12 +5117,12 @@
     </x:row>
     <x:row r="102" spans="1:11" ht="53.100000000000001">
       <x:c r="A102" s="17" t="s">
-        <x:v>170</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B102" s="17"/>
       <x:c r="C102" s="17"/>
       <x:c r="D102" s="17" t="s">
-        <x:v>79</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E102" s="17"/>
       <x:c r="F102" s="17"/>
@@ -5090,12 +5134,12 @@
     </x:row>
     <x:row r="103" spans="1:11" ht="39.899999999999999">
       <x:c r="A103" s="17" t="s">
-        <x:v>175</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B103" s="17"/>
       <x:c r="C103" s="17"/>
       <x:c r="D103" s="17" t="s">
-        <x:v>84</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E103" s="17"/>
       <x:c r="F103" s="17"/>
@@ -5107,12 +5151,12 @@
     </x:row>
     <x:row r="104" spans="1:11" ht="53.100000000000001">
       <x:c r="A104" s="17" t="s">
-        <x:v>137</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B104" s="17"/>
       <x:c r="C104" s="17"/>
       <x:c r="D104" s="17" t="s">
-        <x:v>77</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E104" s="17"/>
       <x:c r="F104" s="17"/>
@@ -5124,12 +5168,12 @@
     </x:row>
     <x:row r="105" spans="1:11" ht="66.25">
       <x:c r="A105" s="17" t="s">
-        <x:v>139</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B105" s="17"/>
       <x:c r="C105" s="17"/>
       <x:c r="D105" s="17" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E105" s="17"/>
       <x:c r="F105" s="17"/>
@@ -5141,10 +5185,10 @@
     </x:row>
     <x:row r="106" spans="1:11" ht="13.550000000000001">
       <x:c r="A106" s="17" t="s">
-        <x:v>13</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B106" s="17" t="s">
-        <x:v>188</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C106" s="17"/>
       <x:c r="D106" s="17"/>
@@ -5158,11 +5202,11 @@
     </x:row>
     <x:row r="107" spans="1:11" ht="39.899999999999999">
       <x:c r="A107" s="17" t="s">
-        <x:v>179</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B107" s="17"/>
       <x:c r="C107" s="17" t="s">
-        <x:v>242</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D107" s="17"/>
       <x:c r="E107" s="17"/>
@@ -5175,12 +5219,12 @@
     </x:row>
     <x:row r="108" spans="1:11" ht="26.75">
       <x:c r="A108" s="17" t="s">
-        <x:v>161</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B108" s="17"/>
       <x:c r="C108" s="17"/>
       <x:c r="D108" s="17" t="s">
-        <x:v>63</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E108" s="17"/>
       <x:c r="F108" s="17"/>
@@ -5192,12 +5236,12 @@
     </x:row>
     <x:row r="109" spans="1:11" ht="39.899999999999999">
       <x:c r="A109" s="17" t="s">
-        <x:v>148</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B109" s="17"/>
       <x:c r="C109" s="17"/>
       <x:c r="D109" s="17" t="s">
-        <x:v>108</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E109" s="17"/>
       <x:c r="F109" s="17"/>
@@ -5209,12 +5253,12 @@
     </x:row>
     <x:row r="110" spans="1:11" ht="39.899999999999999">
       <x:c r="A110" s="17" t="s">
-        <x:v>201</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B110" s="17"/>
       <x:c r="C110" s="17"/>
       <x:c r="D110" s="17" t="s">
-        <x:v>81</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E110" s="17"/>
       <x:c r="F110" s="17"/>
@@ -5226,12 +5270,12 @@
     </x:row>
     <x:row r="111" spans="1:11" ht="39.899999999999999">
       <x:c r="A111" s="17" t="s">
-        <x:v>157</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B111" s="17"/>
       <x:c r="C111" s="17"/>
       <x:c r="D111" s="17" t="s">
-        <x:v>85</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E111" s="17"/>
       <x:c r="F111" s="17"/>
@@ -5243,12 +5287,12 @@
     </x:row>
     <x:row r="112" spans="1:11" ht="66.25">
       <x:c r="A112" s="17" t="s">
-        <x:v>141</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B112" s="17"/>
       <x:c r="C112" s="17"/>
       <x:c r="D112" s="17" t="s">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E112" s="17"/>
       <x:c r="F112" s="17"/>
@@ -5260,10 +5304,10 @@
     </x:row>
     <x:row r="113" spans="1:11" ht="26.75">
       <x:c r="A113" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B113" s="17" t="s">
-        <x:v>45</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C113" s="17"/>
       <x:c r="D113" s="17"/>
@@ -5277,11 +5321,11 @@
     </x:row>
     <x:row r="114" spans="1:11" ht="26.75">
       <x:c r="A114" s="17" t="s">
-        <x:v>214</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B114" s="17"/>
       <x:c r="C114" s="17" t="s">
-        <x:v>116</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D114" s="17"/>
       <x:c r="E114" s="17"/>
@@ -5294,12 +5338,12 @@
     </x:row>
     <x:row r="115" spans="1:11" ht="13.550000000000001">
       <x:c r="A115" s="17" t="s">
-        <x:v>174</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B115" s="17"/>
       <x:c r="C115" s="17"/>
       <x:c r="D115" s="17" t="s">
-        <x:v>53</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E115" s="17"/>
       <x:c r="F115" s="17"/>
@@ -5307,18 +5351,18 @@
       <x:c r="H115" s="45"/>
       <x:c r="I115" s="17"/>
       <x:c r="J115" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K115" s="17"/>
     </x:row>
     <x:row r="116" spans="1:11" ht="13.550000000000001">
       <x:c r="A116" s="17" t="s">
-        <x:v>228</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B116" s="17"/>
       <x:c r="C116" s="17"/>
       <x:c r="D116" s="17" t="s">
-        <x:v>122</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E116" s="17"/>
       <x:c r="F116" s="17"/>
@@ -5326,18 +5370,18 @@
       <x:c r="H116" s="45"/>
       <x:c r="I116" s="17"/>
       <x:c r="J116" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K116" s="17"/>
     </x:row>
     <x:row r="117" spans="1:11" ht="26.75">
       <x:c r="A117" s="17" t="s">
-        <x:v>176</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B117" s="17"/>
       <x:c r="C117" s="17"/>
       <x:c r="D117" s="17" t="s">
-        <x:v>92</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E117" s="17"/>
       <x:c r="F117" s="17"/>
@@ -5345,81 +5389,81 @@
       <x:c r="H117" s="45"/>
       <x:c r="I117" s="17"/>
       <x:c r="J117" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K117" s="17"/>
     </x:row>
     <x:row r="118" spans="1:11" ht="13.550000000000001">
       <x:c r="A118" s="17" t="s">
-        <x:v>202</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B118" s="17"/>
       <x:c r="C118" s="17"/>
       <x:c r="D118" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E118" s="17"/>
       <x:c r="F118" s="17"/>
       <x:c r="G118" s="17"/>
       <x:c r="H118" s="45"/>
       <x:c r="I118" s="17" t="s">
-        <x:v>171</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J118" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K118" s="17"/>
     </x:row>
     <x:row r="119" spans="1:11" ht="13.550000000000001">
       <x:c r="A119" s="17" t="s">
-        <x:v>206</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B119" s="17"/>
       <x:c r="C119" s="17"/>
       <x:c r="D119" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E119" s="17"/>
       <x:c r="F119" s="17"/>
       <x:c r="G119" s="17"/>
       <x:c r="H119" s="45"/>
       <x:c r="I119" s="17" t="s">
-        <x:v>171</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J119" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K119" s="17"/>
     </x:row>
     <x:row r="120" spans="1:11" ht="13.550000000000001">
       <x:c r="A120" s="17" t="s">
-        <x:v>231</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B120" s="17"/>
       <x:c r="C120" s="17"/>
       <x:c r="D120" s="17" t="s">
-        <x:v>47</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E120" s="17"/>
       <x:c r="F120" s="17"/>
       <x:c r="G120" s="17"/>
       <x:c r="H120" s="45"/>
       <x:c r="I120" s="17" t="s">
-        <x:v>171</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J120" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K120" s="17"/>
     </x:row>
     <x:row r="121" spans="1:11" ht="13.550000000000001">
       <x:c r="A121" s="17" t="s">
-        <x:v>171</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B121" s="17"/>
       <x:c r="C121" s="17"/>
       <x:c r="D121" s="17" t="s">
-        <x:v>48</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E121" s="17"/>
       <x:c r="F121" s="17"/>
@@ -5427,16 +5471,16 @@
       <x:c r="H121" s="45"/>
       <x:c r="I121" s="17"/>
       <x:c r="J121" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K121" s="17"/>
     </x:row>
     <x:row r="122" spans="1:11" ht="13.550000000000001">
       <x:c r="A122" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B122" s="17" t="s">
-        <x:v>25</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C122" s="17"/>
       <x:c r="D122" s="17"/>
@@ -5450,11 +5494,11 @@
     </x:row>
     <x:row r="123" spans="1:11" ht="39.899999999999999">
       <x:c r="A123" s="17" t="s">
-        <x:v>227</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B123" s="17"/>
       <x:c r="C123" s="17" t="s">
-        <x:v>58</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D123" s="17"/>
       <x:c r="E123" s="17"/>
@@ -5467,96 +5511,96 @@
     </x:row>
     <x:row r="124" spans="1:11" ht="26.75">
       <x:c r="A124" s="17" t="s">
-        <x:v>215</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B124" s="17"/>
       <x:c r="C124" s="17"/>
       <x:c r="D124" s="17" t="s">
-        <x:v>239</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E124" s="17"/>
       <x:c r="F124" s="17"/>
       <x:c r="G124" s="17"/>
       <x:c r="H124" s="45"/>
       <x:c r="I124" s="17" t="s">
-        <x:v>6</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="J124" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K124" s="17"/>
     </x:row>
     <x:row r="125" spans="1:11" ht="26.75">
       <x:c r="A125" s="17" t="s">
-        <x:v>212</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B125" s="17"/>
       <x:c r="C125" s="17"/>
       <x:c r="D125" s="17" t="s">
-        <x:v>94</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E125" s="17"/>
       <x:c r="F125" s="17"/>
       <x:c r="G125" s="17"/>
       <x:c r="H125" s="45"/>
       <x:c r="I125" s="17" t="s">
-        <x:v>236</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J125" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K125" s="17"/>
     </x:row>
     <x:row r="126" spans="1:11" ht="26.75">
       <x:c r="A126" s="17" t="s">
-        <x:v>197</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B126" s="17"/>
       <x:c r="C126" s="17"/>
       <x:c r="D126" s="53" t="s">
-        <x:v>97</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E126" s="17"/>
       <x:c r="F126" s="17"/>
       <x:c r="G126" s="17"/>
       <x:c r="H126" s="45"/>
       <x:c r="I126" s="17" t="s">
-        <x:v>236</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J126" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K126" s="17"/>
     </x:row>
     <x:row r="127" spans="1:11" ht="26.75">
       <x:c r="A127" s="17" t="s">
-        <x:v>234</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B127" s="17"/>
       <x:c r="C127" s="17"/>
       <x:c r="D127" s="17" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E127" s="17"/>
       <x:c r="F127" s="17"/>
       <x:c r="G127" s="17"/>
       <x:c r="H127" s="45"/>
       <x:c r="I127" s="17" t="s">
-        <x:v>236</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J127" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K127" s="17"/>
     </x:row>
     <x:row r="128" spans="1:11" ht="26.75">
       <x:c r="A128" s="17" t="s">
-        <x:v>222</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B128" s="17"/>
       <x:c r="C128" s="17"/>
       <x:c r="D128" s="17" t="s">
-        <x:v>89</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E128" s="17"/>
       <x:c r="F128" s="17"/>
@@ -5564,18 +5608,18 @@
       <x:c r="H128" s="45"/>
       <x:c r="I128" s="17"/>
       <x:c r="J128" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="K128" s="17"/>
     </x:row>
     <x:row r="129" spans="1:11" ht="26.75">
       <x:c r="A129" s="17" t="s">
-        <x:v>236</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B129" s="17"/>
       <x:c r="C129" s="17"/>
       <x:c r="D129" s="53" t="s">
-        <x:v>129</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E129" s="17"/>
       <x:c r="F129" s="17"/>
@@ -5583,16 +5627,16 @@
       <x:c r="H129" s="45"/>
       <x:c r="I129" s="17"/>
       <x:c r="J129" s="17" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K129" s="17"/>
     </x:row>
     <x:row r="130" spans="1:11" ht="13.550000000000001">
       <x:c r="A130" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B130" s="17" t="s">
-        <x:v>200</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C130" s="17"/>
       <x:c r="D130" s="17"/>
@@ -5606,11 +5650,11 @@
     </x:row>
     <x:row r="131" spans="1:11" ht="26.75">
       <x:c r="A131" s="17" t="s">
-        <x:v>189</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B131" s="17"/>
       <x:c r="C131" s="17" t="s">
-        <x:v>118</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D131" s="17"/>
       <x:c r="E131" s="17"/>
@@ -5623,12 +5667,12 @@
     </x:row>
     <x:row r="132" spans="1:11" ht="26.75">
       <x:c r="A132" s="17" t="s">
-        <x:v>224</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B132" s="17"/>
       <x:c r="C132" s="17"/>
       <x:c r="D132" s="17" t="s">
-        <x:v>101</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E132" s="17"/>
       <x:c r="F132" s="16"/>
@@ -5636,49 +5680,49 @@
       <x:c r="H132" s="20"/>
       <x:c r="I132" s="17"/>
       <x:c r="J132" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K132" s="17"/>
     </x:row>
     <x:row r="133" spans="1:11" ht="26.75">
       <x:c r="A133" s="17" t="s">
-        <x:v>180</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B133" s="17"/>
       <x:c r="C133" s="17"/>
       <x:c r="D133" s="17" t="s">
-        <x:v>64</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E133" s="17"/>
       <x:c r="F133" s="16"/>
       <x:c r="G133" s="17"/>
       <x:c r="H133" s="46"/>
       <x:c r="I133" s="17" t="s">
-        <x:v>224</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="J133" s="18" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K133" s="17"/>
     </x:row>
     <x:row r="134" spans="1:11" ht="27.100000000000001">
       <x:c r="A134" s="21" t="s">
-        <x:v>159</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B134" s="21"/>
       <x:c r="C134" s="21"/>
       <x:c r="D134" s="21" t="s">
-        <x:v>93</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E134" s="21"/>
       <x:c r="F134" s="22"/>
       <x:c r="G134" s="21"/>
       <x:c r="H134" s="47"/>
       <x:c r="I134" s="21" t="s">
-        <x:v>224</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="J134" s="23" t="s">
-        <x:v>160</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K134" s="21"/>
     </x:row>
